--- a/BackTest/2019-11-20 BackTest PIVX.xlsx
+++ b/BackTest/2019-11-20 BackTest PIVX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N103"/>
+  <dimension ref="A1:M132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C2" t="n">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D2" t="n">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E2" t="n">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F2" t="n">
-        <v>1535.6081</v>
+        <v>5224.8995</v>
       </c>
       <c r="G2" t="n">
-        <v>271.9333333333333</v>
+        <v>-12017.11942122</v>
       </c>
       <c r="H2" t="n">
-        <v>266.6833333333333</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C3" t="n">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D3" t="n">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E3" t="n">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F3" t="n">
-        <v>1209.0596</v>
+        <v>80</v>
       </c>
       <c r="G3" t="n">
-        <v>271.9333333333333</v>
+        <v>-12097.11942122</v>
       </c>
       <c r="H3" t="n">
-        <v>266.6833333333333</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C4" t="n">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D4" t="n">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E4" t="n">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F4" t="n">
-        <v>180.8337</v>
+        <v>80</v>
       </c>
       <c r="G4" t="n">
-        <v>271.6</v>
+        <v>-12017.11942122</v>
       </c>
       <c r="H4" t="n">
-        <v>266.75</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C5" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D5" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E5" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F5" t="n">
-        <v>2.5</v>
+        <v>1583</v>
       </c>
       <c r="G5" t="n">
-        <v>271.2</v>
+        <v>-10434.11942122</v>
       </c>
       <c r="H5" t="n">
-        <v>266.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C6" t="n">
         <v>268</v>
       </c>
       <c r="D6" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E6" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F6" t="n">
-        <v>4295.051</v>
+        <v>133</v>
       </c>
       <c r="G6" t="n">
-        <v>270.6666666666667</v>
+        <v>-10301.11942122</v>
       </c>
       <c r="H6" t="n">
-        <v>266.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -631,33 +611,30 @@
         <v>268</v>
       </c>
       <c r="C7" t="n">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D7" t="n">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E7" t="n">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F7" t="n">
-        <v>13</v>
+        <v>3286.2176</v>
       </c>
       <c r="G7" t="n">
-        <v>270.6</v>
+        <v>-13587.33702122</v>
       </c>
       <c r="H7" t="n">
-        <v>266.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C8" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D8" t="n">
         <v>268</v>
       </c>
       <c r="E8" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F8" t="n">
-        <v>1996.3946</v>
+        <v>2402.3999</v>
       </c>
       <c r="G8" t="n">
-        <v>270.2</v>
+        <v>-11184.93712122</v>
       </c>
       <c r="H8" t="n">
-        <v>266.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C9" t="n">
         <v>267</v>
       </c>
       <c r="D9" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E9" t="n">
         <v>267</v>
       </c>
       <c r="F9" t="n">
-        <v>378.845</v>
+        <v>1438.1717</v>
       </c>
       <c r="G9" t="n">
-        <v>269.7333333333333</v>
+        <v>-11184.93712122</v>
       </c>
       <c r="H9" t="n">
-        <v>266.95</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C10" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D10" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E10" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F10" t="n">
-        <v>4004.5958</v>
+        <v>895.66</v>
       </c>
       <c r="G10" t="n">
-        <v>269.1333333333333</v>
+        <v>-10289.27712122</v>
       </c>
       <c r="H10" t="n">
-        <v>266.9666666666666</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C11" t="n">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D11" t="n">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="E11" t="n">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F11" t="n">
-        <v>6349.9557</v>
+        <v>9460.711300000001</v>
       </c>
       <c r="G11" t="n">
-        <v>268.8</v>
+        <v>-828.5658212200015</v>
       </c>
       <c r="H11" t="n">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C12" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D12" t="n">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="E12" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F12" t="n">
-        <v>9</v>
+        <v>5275.729</v>
       </c>
       <c r="G12" t="n">
-        <v>268.6666666666667</v>
+        <v>-828.5658212200015</v>
       </c>
       <c r="H12" t="n">
-        <v>267.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C13" t="n">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D13" t="n">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E13" t="n">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F13" t="n">
-        <v>1610.6</v>
+        <v>523.1249</v>
       </c>
       <c r="G13" t="n">
-        <v>268.6</v>
+        <v>-305.4409212200014</v>
       </c>
       <c r="H13" t="n">
-        <v>267.2166666666666</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C14" t="n">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D14" t="n">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E14" t="n">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F14" t="n">
-        <v>1345.774</v>
+        <v>1867</v>
       </c>
       <c r="G14" t="n">
-        <v>268.6</v>
+        <v>-305.4409212200014</v>
       </c>
       <c r="H14" t="n">
-        <v>267.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C15" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D15" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E15" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F15" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="G15" t="n">
-        <v>268.6</v>
+        <v>-305.4409212200014</v>
       </c>
       <c r="H15" t="n">
-        <v>267.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C16" t="n">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D16" t="n">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E16" t="n">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F16" t="n">
-        <v>80</v>
+        <v>1200</v>
       </c>
       <c r="G16" t="n">
-        <v>268.1333333333333</v>
+        <v>-305.4409212200014</v>
       </c>
       <c r="H16" t="n">
-        <v>267.6</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C17" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D17" t="n">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="E17" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F17" t="n">
-        <v>1578.099</v>
+        <v>606</v>
       </c>
       <c r="G17" t="n">
-        <v>268</v>
+        <v>-911.4409212200014</v>
       </c>
       <c r="H17" t="n">
-        <v>267.7</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C18" t="n">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="D18" t="n">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="E18" t="n">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="F18" t="n">
-        <v>67.9888</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
-        <v>267.8</v>
+        <v>-909.4409212200014</v>
       </c>
       <c r="H18" t="n">
-        <v>267.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C19" t="n">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="D19" t="n">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="E19" t="n">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F19" t="n">
-        <v>99</v>
+        <v>487</v>
       </c>
       <c r="G19" t="n">
-        <v>267.7333333333333</v>
+        <v>-422.4409212200014</v>
       </c>
       <c r="H19" t="n">
-        <v>267.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="C20" t="n">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="D20" t="n">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E20" t="n">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F20" t="n">
-        <v>2280</v>
+        <v>1160</v>
       </c>
       <c r="G20" t="n">
-        <v>267.6666666666667</v>
+        <v>737.5590787799986</v>
       </c>
       <c r="H20" t="n">
-        <v>267.9</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C21" t="n">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="D21" t="n">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="E21" t="n">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="F21" t="n">
-        <v>3003.873</v>
+        <v>614.5665</v>
       </c>
       <c r="G21" t="n">
-        <v>267.5333333333334</v>
+        <v>122.9925787799986</v>
       </c>
       <c r="H21" t="n">
-        <v>267.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="C22" t="n">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="D22" t="n">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="E22" t="n">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="F22" t="n">
-        <v>290</v>
+        <v>9</v>
       </c>
       <c r="G22" t="n">
-        <v>267.1333333333333</v>
+        <v>131.9925787799986</v>
       </c>
       <c r="H22" t="n">
-        <v>267.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="C23" t="n">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="D23" t="n">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="E23" t="n">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="F23" t="n">
-        <v>9200</v>
+        <v>644.9335</v>
       </c>
       <c r="G23" t="n">
-        <v>266.8666666666667</v>
+        <v>131.9925787799986</v>
       </c>
       <c r="H23" t="n">
-        <v>268.0333333333334</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="C24" t="n">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="D24" t="n">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="E24" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F24" t="n">
-        <v>19.5474</v>
+        <v>10545.4457</v>
       </c>
       <c r="G24" t="n">
-        <v>266.8</v>
+        <v>10677.43827878</v>
       </c>
       <c r="H24" t="n">
-        <v>268.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C25" t="n">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="D25" t="n">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E25" t="n">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="F25" t="n">
-        <v>10921.6011</v>
+        <v>132</v>
       </c>
       <c r="G25" t="n">
-        <v>266.6</v>
+        <v>10545.43827878</v>
       </c>
       <c r="H25" t="n">
-        <v>268.15</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,40 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C26" t="n">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D26" t="n">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="E26" t="n">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F26" t="n">
-        <v>136.4526</v>
+        <v>7904.1047</v>
       </c>
       <c r="G26" t="n">
-        <v>266.6666666666667</v>
+        <v>10545.43827878</v>
       </c>
       <c r="H26" t="n">
-        <v>268.25</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>263</v>
-      </c>
-      <c r="L26" t="n">
-        <v>263</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1392,42 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C27" t="n">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="D27" t="n">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="E27" t="n">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="F27" t="n">
-        <v>6993.007</v>
+        <v>196</v>
       </c>
       <c r="G27" t="n">
-        <v>266.2666666666667</v>
+        <v>10349.43827878</v>
       </c>
       <c r="H27" t="n">
-        <v>268.3</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>263</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1436,42 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C28" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D28" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E28" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F28" t="n">
-        <v>257.9828</v>
+        <v>614.5665</v>
       </c>
       <c r="G28" t="n">
-        <v>266.1333333333333</v>
+        <v>10349.43827878</v>
       </c>
       <c r="H28" t="n">
-        <v>268.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>263</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1480,36 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C29" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D29" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E29" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F29" t="n">
-        <v>56</v>
+        <v>1921.3628</v>
       </c>
       <c r="G29" t="n">
-        <v>266</v>
+        <v>12270.80107878</v>
       </c>
       <c r="H29" t="n">
-        <v>268.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1518,36 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="C30" t="n">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="D30" t="n">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="E30" t="n">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="F30" t="n">
-        <v>1884</v>
+        <v>12</v>
       </c>
       <c r="G30" t="n">
-        <v>265.8</v>
+        <v>12282.80107878</v>
       </c>
       <c r="H30" t="n">
-        <v>268.35</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1556,36 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="C31" t="n">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D31" t="n">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="E31" t="n">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="F31" t="n">
-        <v>4817</v>
+        <v>1535.6081</v>
       </c>
       <c r="G31" t="n">
-        <v>265.6</v>
+        <v>10747.19297878</v>
       </c>
       <c r="H31" t="n">
-        <v>268.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1594,42 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C32" t="n">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D32" t="n">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E32" t="n">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="F32" t="n">
-        <v>2141.7212</v>
+        <v>1209.0596</v>
       </c>
       <c r="G32" t="n">
-        <v>265.3333333333333</v>
+        <v>9538.133378779999</v>
       </c>
       <c r="H32" t="n">
-        <v>268.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>265</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,42 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C33" t="n">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D33" t="n">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E33" t="n">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F33" t="n">
-        <v>7560.526</v>
+        <v>180.8337</v>
       </c>
       <c r="G33" t="n">
-        <v>265.2666666666667</v>
+        <v>9538.133378779999</v>
       </c>
       <c r="H33" t="n">
-        <v>268.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>264</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1682,42 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C34" t="n">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D34" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E34" t="n">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F34" t="n">
-        <v>201.2498</v>
+        <v>2.5</v>
       </c>
       <c r="G34" t="n">
-        <v>265.0666666666667</v>
+        <v>9538.133378779999</v>
       </c>
       <c r="H34" t="n">
-        <v>268.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>265</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1726,42 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C35" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D35" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E35" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F35" t="n">
-        <v>9375.0548</v>
+        <v>4295.051</v>
       </c>
       <c r="G35" t="n">
-        <v>264.9333333333333</v>
+        <v>5243.082378779999</v>
       </c>
       <c r="H35" t="n">
-        <v>268.35</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>265</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1770,42 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C36" t="n">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D36" t="n">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E36" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F36" t="n">
-        <v>2036</v>
+        <v>13</v>
       </c>
       <c r="G36" t="n">
-        <v>265</v>
+        <v>5256.082378779999</v>
       </c>
       <c r="H36" t="n">
-        <v>268.3666666666667</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>266</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1823,33 +1667,24 @@
         <v>268</v>
       </c>
       <c r="E37" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F37" t="n">
-        <v>7061.2998</v>
+        <v>1996.3946</v>
       </c>
       <c r="G37" t="n">
-        <v>265.2</v>
+        <v>3259.687778779999</v>
       </c>
       <c r="H37" t="n">
-        <v>268.3666666666667</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>267</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1858,40 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C38" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D38" t="n">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E38" t="n">
         <v>267</v>
       </c>
       <c r="F38" t="n">
-        <v>6847.6181</v>
+        <v>378.845</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4666666666666</v>
+        <v>2880.842778779999</v>
       </c>
       <c r="H38" t="n">
-        <v>268.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1900,40 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C39" t="n">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D39" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E39" t="n">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F39" t="n">
-        <v>1181.8458</v>
+        <v>4004.5958</v>
       </c>
       <c r="G39" t="n">
-        <v>265.6</v>
+        <v>-1123.753021220001</v>
       </c>
       <c r="H39" t="n">
-        <v>268.4333333333333</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1942,40 +1763,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C40" t="n">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D40" t="n">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E40" t="n">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F40" t="n">
-        <v>4.7684</v>
+        <v>6349.9557</v>
       </c>
       <c r="G40" t="n">
-        <v>266.0666666666667</v>
+        <v>-7473.708721220001</v>
       </c>
       <c r="H40" t="n">
-        <v>268.4833333333333</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,28 +1816,25 @@
         <v>268</v>
       </c>
       <c r="F41" t="n">
-        <v>1055</v>
+        <v>9</v>
       </c>
       <c r="G41" t="n">
-        <v>266.2</v>
+        <v>-7464.708721220001</v>
       </c>
       <c r="H41" t="n">
-        <v>268.4666666666666</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2026,40 +1843,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C42" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D42" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E42" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F42" t="n">
-        <v>407</v>
+        <v>1610.6</v>
       </c>
       <c r="G42" t="n">
-        <v>266.6</v>
+        <v>-9075.308721220001</v>
       </c>
       <c r="H42" t="n">
-        <v>268.4333333333333</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>268</v>
       </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2068,40 +1884,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C43" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D43" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E43" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F43" t="n">
-        <v>1905</v>
+        <v>1345.774</v>
       </c>
       <c r="G43" t="n">
-        <v>266.8666666666667</v>
+        <v>-7729.534721220001</v>
       </c>
       <c r="H43" t="n">
-        <v>268.4166666666667</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2122,28 +1937,27 @@
         <v>269</v>
       </c>
       <c r="F44" t="n">
-        <v>604.3999</v>
+        <v>33</v>
       </c>
       <c r="G44" t="n">
-        <v>267.0666666666667</v>
+        <v>-7696.534721220001</v>
       </c>
       <c r="H44" t="n">
-        <v>268.3833333333333</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>268</v>
       </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2152,40 +1966,37 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C45" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D45" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E45" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F45" t="n">
-        <v>15.9228</v>
+        <v>80</v>
       </c>
       <c r="G45" t="n">
-        <v>267.3333333333333</v>
+        <v>-7776.534721220001</v>
       </c>
       <c r="H45" t="n">
-        <v>268.3666666666667</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2194,40 +2005,37 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C46" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D46" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E46" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F46" t="n">
-        <v>15.9228</v>
+        <v>1578.099</v>
       </c>
       <c r="G46" t="n">
-        <v>267.6</v>
+        <v>-7776.534721220001</v>
       </c>
       <c r="H46" t="n">
-        <v>268.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2236,40 +2044,37 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C47" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D47" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E47" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F47" t="n">
-        <v>3653.3285</v>
+        <v>67.9888</v>
       </c>
       <c r="G47" t="n">
-        <v>267.9333333333333</v>
+        <v>-7844.523521220001</v>
       </c>
       <c r="H47" t="n">
-        <v>268.3</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2278,40 +2083,37 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C48" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D48" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E48" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F48" t="n">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="G48" t="n">
-        <v>268.2</v>
+        <v>-7745.523521220001</v>
       </c>
       <c r="H48" t="n">
-        <v>268.3</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2320,42 +2122,37 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C49" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D49" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E49" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F49" t="n">
-        <v>1.9</v>
+        <v>2280</v>
       </c>
       <c r="G49" t="n">
-        <v>268.5333333333334</v>
+        <v>-7745.523521220001</v>
       </c>
       <c r="H49" t="n">
-        <v>268.2333333333333</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>269</v>
-      </c>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2364,42 +2161,37 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C50" t="n">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D50" t="n">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E50" t="n">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F50" t="n">
-        <v>2848.335</v>
+        <v>3003.873</v>
       </c>
       <c r="G50" t="n">
-        <v>268.8</v>
+        <v>-10749.39652122</v>
       </c>
       <c r="H50" t="n">
-        <v>268.15</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>270</v>
-      </c>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,42 +2200,37 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C51" t="n">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D51" t="n">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E51" t="n">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F51" t="n">
-        <v>139</v>
+        <v>290</v>
       </c>
       <c r="G51" t="n">
-        <v>269</v>
+        <v>-11039.39652122</v>
       </c>
       <c r="H51" t="n">
-        <v>268.05</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="n">
-        <v>270</v>
-      </c>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,42 +2239,37 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C52" t="n">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D52" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E52" t="n">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F52" t="n">
-        <v>1119.3609</v>
+        <v>9200</v>
       </c>
       <c r="G52" t="n">
-        <v>269.0666666666667</v>
+        <v>-20239.39652122</v>
       </c>
       <c r="H52" t="n">
-        <v>268</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="n">
-        <v>270</v>
-      </c>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2496,42 +2278,37 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C53" t="n">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D53" t="n">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E53" t="n">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F53" t="n">
-        <v>1.9</v>
+        <v>19.5474</v>
       </c>
       <c r="G53" t="n">
-        <v>269.2666666666667</v>
+        <v>-20219.84912122</v>
       </c>
       <c r="H53" t="n">
-        <v>267.95</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="n">
-        <v>269</v>
-      </c>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2540,40 +2317,37 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C54" t="n">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="D54" t="n">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="E54" t="n">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="F54" t="n">
-        <v>410.4149</v>
+        <v>10921.6011</v>
       </c>
       <c r="G54" t="n">
-        <v>269.5333333333334</v>
+        <v>-31141.45022122</v>
       </c>
       <c r="H54" t="n">
-        <v>267.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2582,42 +2356,37 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C55" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D55" t="n">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E55" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F55" t="n">
-        <v>395.6241</v>
+        <v>136.4526</v>
       </c>
       <c r="G55" t="n">
-        <v>269.4666666666666</v>
+        <v>-31004.99762122</v>
       </c>
       <c r="H55" t="n">
-        <v>267.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="n">
-        <v>272</v>
-      </c>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2626,42 +2395,37 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C56" t="n">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="D56" t="n">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="E56" t="n">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="F56" t="n">
-        <v>1121</v>
+        <v>6993.007</v>
       </c>
       <c r="G56" t="n">
-        <v>269.7333333333333</v>
+        <v>-37998.00462122</v>
       </c>
       <c r="H56" t="n">
-        <v>267.85</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="n">
-        <v>269</v>
-      </c>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2670,42 +2434,37 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C57" t="n">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D57" t="n">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="E57" t="n">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F57" t="n">
-        <v>221.35</v>
+        <v>257.9828</v>
       </c>
       <c r="G57" t="n">
-        <v>270.0666666666667</v>
+        <v>-37740.02182122001</v>
       </c>
       <c r="H57" t="n">
-        <v>267.9</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="n">
-        <v>272</v>
-      </c>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2714,42 +2473,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C58" t="n">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D58" t="n">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E58" t="n">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F58" t="n">
-        <v>278</v>
+        <v>56</v>
       </c>
       <c r="G58" t="n">
-        <v>270.4</v>
+        <v>-37684.02182122001</v>
       </c>
       <c r="H58" t="n">
-        <v>268</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="n">
-        <v>273</v>
-      </c>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
+        <v>265</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,40 +2514,37 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C59" t="n">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D59" t="n">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E59" t="n">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F59" t="n">
-        <v>1769.252</v>
+        <v>1884</v>
       </c>
       <c r="G59" t="n">
-        <v>270.5333333333334</v>
+        <v>-37684.02182122001</v>
       </c>
       <c r="H59" t="n">
-        <v>268.05</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2800,40 +2553,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C60" t="n">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D60" t="n">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E60" t="n">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F60" t="n">
-        <v>255.8865</v>
+        <v>4817</v>
       </c>
       <c r="G60" t="n">
-        <v>270.6</v>
+        <v>-42501.02182122001</v>
       </c>
       <c r="H60" t="n">
-        <v>268.0833333333333</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2842,40 +2594,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C61" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D61" t="n">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="E61" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F61" t="n">
-        <v>1765.421</v>
+        <v>2141.7212</v>
       </c>
       <c r="G61" t="n">
-        <v>270.7333333333333</v>
+        <v>-44642.74302122001</v>
       </c>
       <c r="H61" t="n">
-        <v>268.0166666666667</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2884,40 +2635,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C62" t="n">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D62" t="n">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="E62" t="n">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="F62" t="n">
-        <v>905.7</v>
+        <v>7560.526</v>
       </c>
       <c r="G62" t="n">
-        <v>270.9333333333333</v>
+        <v>-37082.21702122001</v>
       </c>
       <c r="H62" t="n">
-        <v>268.05</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2926,40 +2676,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C63" t="n">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="D63" t="n">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="E63" t="n">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="F63" t="n">
-        <v>100</v>
+        <v>201.2498</v>
       </c>
       <c r="G63" t="n">
-        <v>271.3333333333333</v>
+        <v>-37082.21702122001</v>
       </c>
       <c r="H63" t="n">
-        <v>268.15</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,40 +2717,37 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C64" t="n">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="D64" t="n">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="E64" t="n">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="F64" t="n">
-        <v>31.1765</v>
+        <v>9375.0548</v>
       </c>
       <c r="G64" t="n">
-        <v>271.6666666666667</v>
+        <v>-27707.16222122001</v>
       </c>
       <c r="H64" t="n">
-        <v>268.25</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3010,40 +2756,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C65" t="n">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D65" t="n">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E65" t="n">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F65" t="n">
-        <v>334.8</v>
+        <v>2036</v>
       </c>
       <c r="G65" t="n">
-        <v>271.8</v>
+        <v>-25671.16222122001</v>
       </c>
       <c r="H65" t="n">
-        <v>268.3</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3052,40 +2797,37 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C66" t="n">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D66" t="n">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="E66" t="n">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F66" t="n">
-        <v>4787.3186</v>
+        <v>7061.2998</v>
       </c>
       <c r="G66" t="n">
-        <v>271.9333333333333</v>
+        <v>-18609.86242122001</v>
       </c>
       <c r="H66" t="n">
-        <v>268.3666666666667</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3094,40 +2836,37 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C67" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D67" t="n">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E67" t="n">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F67" t="n">
-        <v>6084.074</v>
+        <v>6847.6181</v>
       </c>
       <c r="G67" t="n">
-        <v>272</v>
+        <v>-18609.86242122001</v>
       </c>
       <c r="H67" t="n">
-        <v>268.35</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,40 +2875,37 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C68" t="n">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D68" t="n">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E68" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F68" t="n">
-        <v>255.4633</v>
+        <v>1181.8458</v>
       </c>
       <c r="G68" t="n">
-        <v>272.0666666666667</v>
+        <v>-18609.86242122001</v>
       </c>
       <c r="H68" t="n">
-        <v>268.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,40 +2914,37 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C69" t="n">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D69" t="n">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E69" t="n">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F69" t="n">
-        <v>2199.0564</v>
+        <v>4.7684</v>
       </c>
       <c r="G69" t="n">
-        <v>272.2666666666667</v>
+        <v>-18605.09402122001</v>
       </c>
       <c r="H69" t="n">
-        <v>268.55</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3220,40 +2953,37 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C70" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D70" t="n">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="E70" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F70" t="n">
-        <v>5909.2096</v>
+        <v>1055</v>
       </c>
       <c r="G70" t="n">
-        <v>272.3333333333333</v>
+        <v>-19660.09402122001</v>
       </c>
       <c r="H70" t="n">
-        <v>268.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3262,40 +2992,37 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C71" t="n">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D71" t="n">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="E71" t="n">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F71" t="n">
-        <v>1500</v>
+        <v>407</v>
       </c>
       <c r="G71" t="n">
-        <v>272.5333333333334</v>
+        <v>-19660.09402122001</v>
       </c>
       <c r="H71" t="n">
-        <v>268.7833333333334</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,40 +3031,37 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C72" t="n">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D72" t="n">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="E72" t="n">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F72" t="n">
-        <v>60</v>
+        <v>1905</v>
       </c>
       <c r="G72" t="n">
-        <v>272.7333333333333</v>
+        <v>-17755.09402122001</v>
       </c>
       <c r="H72" t="n">
-        <v>268.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3346,40 +3070,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C73" t="n">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D73" t="n">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="E73" t="n">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F73" t="n">
-        <v>2067.5989</v>
+        <v>604.3999</v>
       </c>
       <c r="G73" t="n">
-        <v>272.5333333333334</v>
+        <v>-17755.09402122001</v>
       </c>
       <c r="H73" t="n">
-        <v>268.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>1</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3398,24 +3121,25 @@
         <v>270</v>
       </c>
       <c r="F74" t="n">
-        <v>1741.375</v>
+        <v>15.9228</v>
       </c>
       <c r="G74" t="n">
-        <v>272.4666666666666</v>
+        <v>-17739.17122122001</v>
       </c>
       <c r="H74" t="n">
-        <v>269.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>1</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3424,36 +3148,37 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C75" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D75" t="n">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E75" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F75" t="n">
-        <v>1606.8445</v>
+        <v>15.9228</v>
       </c>
       <c r="G75" t="n">
-        <v>272.4</v>
+        <v>-17755.09402122001</v>
       </c>
       <c r="H75" t="n">
-        <v>269.0333333333334</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>1</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3462,36 +3187,37 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C76" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D76" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E76" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F76" t="n">
-        <v>64</v>
+        <v>3653.3285</v>
       </c>
       <c r="G76" t="n">
-        <v>272.3333333333333</v>
+        <v>-17755.09402122001</v>
       </c>
       <c r="H76" t="n">
-        <v>269.0666666666667</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>1</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3500,36 +3226,37 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C77" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D77" t="n">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E77" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F77" t="n">
-        <v>6000</v>
+        <v>40</v>
       </c>
       <c r="G77" t="n">
-        <v>272.2</v>
+        <v>-17755.09402122001</v>
       </c>
       <c r="H77" t="n">
-        <v>269.1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>1</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3538,36 +3265,37 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C78" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D78" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E78" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F78" t="n">
-        <v>1800</v>
+        <v>1.9</v>
       </c>
       <c r="G78" t="n">
-        <v>272</v>
+        <v>-17753.19402122001</v>
       </c>
       <c r="H78" t="n">
-        <v>269.2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>1</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3576,36 +3304,37 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C79" t="n">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D79" t="n">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E79" t="n">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F79" t="n">
-        <v>1000</v>
+        <v>2848.335</v>
       </c>
       <c r="G79" t="n">
-        <v>271.9333333333333</v>
+        <v>-17753.19402122001</v>
       </c>
       <c r="H79" t="n">
-        <v>269.3</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>1</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3614,36 +3343,37 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C80" t="n">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D80" t="n">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="E80" t="n">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F80" t="n">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="G80" t="n">
-        <v>272.2666666666667</v>
+        <v>-17753.19402122001</v>
       </c>
       <c r="H80" t="n">
-        <v>269.45</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>1</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3652,36 +3382,37 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C81" t="n">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D81" t="n">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E81" t="n">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F81" t="n">
-        <v>1477.6695</v>
+        <v>1119.3609</v>
       </c>
       <c r="G81" t="n">
-        <v>272.3333333333333</v>
+        <v>-18872.55492122001</v>
       </c>
       <c r="H81" t="n">
-        <v>269.5666666666667</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>1</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3702,24 +3433,25 @@
         <v>271</v>
       </c>
       <c r="F82" t="n">
-        <v>1316.21</v>
+        <v>1.9</v>
       </c>
       <c r="G82" t="n">
-        <v>272.4</v>
+        <v>-18870.65492122</v>
       </c>
       <c r="H82" t="n">
-        <v>269.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>1</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3728,36 +3460,37 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
+        <v>270</v>
+      </c>
+      <c r="C83" t="n">
         <v>272</v>
       </c>
-      <c r="C83" t="n">
-        <v>273</v>
-      </c>
       <c r="D83" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E83" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F83" t="n">
-        <v>1600</v>
+        <v>410.4149</v>
       </c>
       <c r="G83" t="n">
-        <v>272.4666666666666</v>
+        <v>-18460.24002122</v>
       </c>
       <c r="H83" t="n">
-        <v>269.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>1</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3766,36 +3499,37 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C84" t="n">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D84" t="n">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E84" t="n">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F84" t="n">
-        <v>2163.3959</v>
+        <v>395.6241</v>
       </c>
       <c r="G84" t="n">
-        <v>272.3333333333333</v>
+        <v>-18855.86412122001</v>
       </c>
       <c r="H84" t="n">
-        <v>269.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>1</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3804,36 +3538,37 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C85" t="n">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D85" t="n">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E85" t="n">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F85" t="n">
-        <v>11</v>
+        <v>1121</v>
       </c>
       <c r="G85" t="n">
-        <v>272.6666666666667</v>
+        <v>-17734.86412122001</v>
       </c>
       <c r="H85" t="n">
-        <v>270.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>1</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3842,36 +3577,37 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C86" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D86" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E86" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F86" t="n">
-        <v>4216.717</v>
+        <v>221.35</v>
       </c>
       <c r="G86" t="n">
-        <v>272.4</v>
+        <v>-17513.51412122001</v>
       </c>
       <c r="H86" t="n">
-        <v>270.2166666666666</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>1</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3880,36 +3616,37 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C87" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D87" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E87" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F87" t="n">
-        <v>3788.9</v>
+        <v>278</v>
       </c>
       <c r="G87" t="n">
-        <v>272.1333333333333</v>
+        <v>-17235.51412122001</v>
       </c>
       <c r="H87" t="n">
-        <v>270.3833333333333</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>1</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3918,36 +3655,37 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C88" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D88" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E88" t="n">
         <v>270</v>
       </c>
       <c r="F88" t="n">
-        <v>110</v>
+        <v>1769.252</v>
       </c>
       <c r="G88" t="n">
-        <v>272.0666666666667</v>
+        <v>-19004.76612122001</v>
       </c>
       <c r="H88" t="n">
-        <v>270.4666666666666</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>1</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3956,36 +3694,37 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C89" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D89" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E89" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F89" t="n">
-        <v>802</v>
+        <v>255.8865</v>
       </c>
       <c r="G89" t="n">
-        <v>272.2</v>
+        <v>-19004.76612122001</v>
       </c>
       <c r="H89" t="n">
-        <v>270.5666666666667</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>1</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3994,36 +3733,37 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C90" t="n">
         <v>271</v>
       </c>
       <c r="D90" t="n">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E90" t="n">
         <v>271</v>
       </c>
       <c r="F90" t="n">
-        <v>663</v>
+        <v>1765.421</v>
       </c>
       <c r="G90" t="n">
-        <v>272.2666666666667</v>
+        <v>-19004.76612122001</v>
       </c>
       <c r="H90" t="n">
-        <v>270.65</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>1</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4032,36 +3772,37 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C91" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D91" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E91" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F91" t="n">
-        <v>8703.6754</v>
+        <v>905.7</v>
       </c>
       <c r="G91" t="n">
-        <v>272.4666666666666</v>
+        <v>-18099.06612122001</v>
       </c>
       <c r="H91" t="n">
-        <v>270.7833333333334</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>1</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4070,36 +3811,37 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C92" t="n">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D92" t="n">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E92" t="n">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F92" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="G92" t="n">
-        <v>272.6</v>
+        <v>-17999.06612122001</v>
       </c>
       <c r="H92" t="n">
-        <v>270.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>1</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4108,36 +3850,37 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C93" t="n">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D93" t="n">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E93" t="n">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F93" t="n">
-        <v>173.9999</v>
+        <v>31.1765</v>
       </c>
       <c r="G93" t="n">
-        <v>272.5333333333334</v>
+        <v>-17999.06612122001</v>
       </c>
       <c r="H93" t="n">
-        <v>271.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4146,36 +3889,37 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C94" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D94" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E94" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F94" t="n">
-        <v>796.0386</v>
+        <v>334.8</v>
       </c>
       <c r="G94" t="n">
-        <v>272.4666666666666</v>
+        <v>-18333.86612122001</v>
       </c>
       <c r="H94" t="n">
-        <v>271.15</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>1</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4184,36 +3928,37 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C95" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D95" t="n">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E95" t="n">
         <v>271</v>
       </c>
       <c r="F95" t="n">
-        <v>1111</v>
+        <v>4787.3186</v>
       </c>
       <c r="G95" t="n">
-        <v>272.0666666666667</v>
+        <v>-18333.86612122001</v>
       </c>
       <c r="H95" t="n">
-        <v>271.2333333333333</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,36 +3967,37 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C96" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D96" t="n">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E96" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F96" t="n">
-        <v>167.6834</v>
+        <v>6084.074</v>
       </c>
       <c r="G96" t="n">
-        <v>272</v>
+        <v>-24417.94012122001</v>
       </c>
       <c r="H96" t="n">
-        <v>271.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4260,36 +4006,37 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C97" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D97" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E97" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F97" t="n">
-        <v>31.1765</v>
+        <v>255.4633</v>
       </c>
       <c r="G97" t="n">
-        <v>272</v>
+        <v>-24162.47682122001</v>
       </c>
       <c r="H97" t="n">
-        <v>271.3666666666667</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,36 +4045,37 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C98" t="n">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D98" t="n">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E98" t="n">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F98" t="n">
-        <v>6806.7613</v>
+        <v>2199.0564</v>
       </c>
       <c r="G98" t="n">
-        <v>271.8</v>
+        <v>-21963.42042122001</v>
       </c>
       <c r="H98" t="n">
-        <v>271.4</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4336,36 +4084,37 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C99" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D99" t="n">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="E99" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F99" t="n">
-        <v>1000</v>
+        <v>5909.2096</v>
       </c>
       <c r="G99" t="n">
-        <v>271.5333333333334</v>
+        <v>-27872.63002122001</v>
       </c>
       <c r="H99" t="n">
-        <v>271.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4374,36 +4123,37 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C100" t="n">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="D100" t="n">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="E100" t="n">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="F100" t="n">
-        <v>1032.0211</v>
+        <v>1500</v>
       </c>
       <c r="G100" t="n">
-        <v>271.1333333333333</v>
+        <v>-26372.63002122001</v>
       </c>
       <c r="H100" t="n">
-        <v>271.4</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4412,36 +4162,37 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C101" t="n">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="D101" t="n">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="E101" t="n">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="F101" t="n">
-        <v>1896.9141</v>
+        <v>60</v>
       </c>
       <c r="G101" t="n">
-        <v>271</v>
+        <v>-26312.63002122001</v>
       </c>
       <c r="H101" t="n">
-        <v>271.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4450,74 +4201,1085 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C102" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D102" t="n">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="E102" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F102" t="n">
-        <v>70</v>
+        <v>2067.5989</v>
       </c>
       <c r="G102" t="n">
-        <v>270.8666666666667</v>
+        <v>-28380.22892122001</v>
       </c>
       <c r="H102" t="n">
-        <v>271.45</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C103" t="n">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D103" t="n">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E103" t="n">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F103" t="n">
-        <v>2.258</v>
+        <v>1741.375</v>
       </c>
       <c r="G103" t="n">
-        <v>271.0666666666667</v>
+        <v>-30121.60392122001</v>
       </c>
       <c r="H103" t="n">
-        <v>271.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>274</v>
+      </c>
+      <c r="C104" t="n">
+        <v>270</v>
+      </c>
+      <c r="D104" t="n">
+        <v>274</v>
+      </c>
+      <c r="E104" t="n">
+        <v>270</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1606.8445</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-30121.60392122001</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>270</v>
+      </c>
+      <c r="C105" t="n">
+        <v>270</v>
+      </c>
+      <c r="D105" t="n">
+        <v>270</v>
+      </c>
+      <c r="E105" t="n">
+        <v>270</v>
+      </c>
+      <c r="F105" t="n">
+        <v>64</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-30121.60392122001</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>271</v>
+      </c>
+      <c r="C106" t="n">
+        <v>270</v>
+      </c>
+      <c r="D106" t="n">
+        <v>271</v>
+      </c>
+      <c r="E106" t="n">
+        <v>270</v>
+      </c>
+      <c r="F106" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-30121.60392122001</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>271</v>
+      </c>
+      <c r="C107" t="n">
+        <v>272</v>
+      </c>
+      <c r="D107" t="n">
+        <v>272</v>
+      </c>
+      <c r="E107" t="n">
+        <v>271</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1800</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-28321.60392122001</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>273</v>
+      </c>
+      <c r="C108" t="n">
+        <v>274</v>
+      </c>
+      <c r="D108" t="n">
+        <v>274</v>
+      </c>
+      <c r="E108" t="n">
+        <v>273</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-27321.60392122001</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>274</v>
+      </c>
+      <c r="C109" t="n">
+        <v>277</v>
+      </c>
+      <c r="D109" t="n">
+        <v>277</v>
+      </c>
+      <c r="E109" t="n">
+        <v>274</v>
+      </c>
+      <c r="F109" t="n">
+        <v>120</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-27201.60392122001</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>273</v>
+      </c>
+      <c r="C110" t="n">
+        <v>273</v>
+      </c>
+      <c r="D110" t="n">
+        <v>273</v>
+      </c>
+      <c r="E110" t="n">
+        <v>273</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1477.6695</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-28679.27342122001</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>271</v>
+      </c>
+      <c r="C111" t="n">
+        <v>271</v>
+      </c>
+      <c r="D111" t="n">
+        <v>271</v>
+      </c>
+      <c r="E111" t="n">
+        <v>271</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1316.21</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-29995.48342122001</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>272</v>
+      </c>
+      <c r="C112" t="n">
+        <v>273</v>
+      </c>
+      <c r="D112" t="n">
+        <v>273</v>
+      </c>
+      <c r="E112" t="n">
+        <v>272</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-28395.48342122001</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>273</v>
+      </c>
+      <c r="C113" t="n">
+        <v>273</v>
+      </c>
+      <c r="D113" t="n">
+        <v>273</v>
+      </c>
+      <c r="E113" t="n">
+        <v>273</v>
+      </c>
+      <c r="F113" t="n">
+        <v>2163.3959</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-28395.48342122001</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>275</v>
+      </c>
+      <c r="C114" t="n">
+        <v>275</v>
+      </c>
+      <c r="D114" t="n">
+        <v>275</v>
+      </c>
+      <c r="E114" t="n">
+        <v>275</v>
+      </c>
+      <c r="F114" t="n">
+        <v>11</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-28384.48342122001</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>272</v>
+      </c>
+      <c r="C115" t="n">
+        <v>271</v>
+      </c>
+      <c r="D115" t="n">
+        <v>272</v>
+      </c>
+      <c r="E115" t="n">
+        <v>271</v>
+      </c>
+      <c r="F115" t="n">
+        <v>4216.717</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-32601.20042122001</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>272</v>
+      </c>
+      <c r="C116" t="n">
+        <v>272</v>
+      </c>
+      <c r="D116" t="n">
+        <v>272</v>
+      </c>
+      <c r="E116" t="n">
+        <v>272</v>
+      </c>
+      <c r="F116" t="n">
+        <v>3788.9</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-28812.30042122001</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>270</v>
+      </c>
+      <c r="C117" t="n">
+        <v>270</v>
+      </c>
+      <c r="D117" t="n">
+        <v>270</v>
+      </c>
+      <c r="E117" t="n">
+        <v>270</v>
+      </c>
+      <c r="F117" t="n">
+        <v>110</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-28922.30042122001</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>272</v>
+      </c>
+      <c r="C118" t="n">
+        <v>272</v>
+      </c>
+      <c r="D118" t="n">
+        <v>272</v>
+      </c>
+      <c r="E118" t="n">
+        <v>272</v>
+      </c>
+      <c r="F118" t="n">
+        <v>802</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-28120.30042122001</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>271</v>
+      </c>
+      <c r="C119" t="n">
+        <v>271</v>
+      </c>
+      <c r="D119" t="n">
+        <v>271</v>
+      </c>
+      <c r="E119" t="n">
+        <v>271</v>
+      </c>
+      <c r="F119" t="n">
+        <v>663</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-28783.30042122001</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>273</v>
+      </c>
+      <c r="C120" t="n">
+        <v>273</v>
+      </c>
+      <c r="D120" t="n">
+        <v>273</v>
+      </c>
+      <c r="E120" t="n">
+        <v>273</v>
+      </c>
+      <c r="F120" t="n">
+        <v>8703.6754</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-20079.62502122001</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>272</v>
+      </c>
+      <c r="C121" t="n">
+        <v>272</v>
+      </c>
+      <c r="D121" t="n">
+        <v>272</v>
+      </c>
+      <c r="E121" t="n">
+        <v>272</v>
+      </c>
+      <c r="F121" t="n">
+        <v>4</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-20083.62502122001</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>272</v>
+      </c>
+      <c r="C122" t="n">
+        <v>271</v>
+      </c>
+      <c r="D122" t="n">
+        <v>272</v>
+      </c>
+      <c r="E122" t="n">
+        <v>271</v>
+      </c>
+      <c r="F122" t="n">
+        <v>173.9999</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-20257.62492122001</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>273</v>
+      </c>
+      <c r="C123" t="n">
+        <v>273</v>
+      </c>
+      <c r="D123" t="n">
+        <v>273</v>
+      </c>
+      <c r="E123" t="n">
+        <v>273</v>
+      </c>
+      <c r="F123" t="n">
+        <v>796.0386</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-19461.58632122001</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>271</v>
+      </c>
+      <c r="C124" t="n">
+        <v>271</v>
+      </c>
+      <c r="D124" t="n">
+        <v>271</v>
+      </c>
+      <c r="E124" t="n">
+        <v>271</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1111</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-20572.58632122001</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>272</v>
+      </c>
+      <c r="C125" t="n">
+        <v>272</v>
+      </c>
+      <c r="D125" t="n">
+        <v>272</v>
+      </c>
+      <c r="E125" t="n">
+        <v>272</v>
+      </c>
+      <c r="F125" t="n">
+        <v>167.6834</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-20404.90292122</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>271</v>
+      </c>
+      <c r="C126" t="n">
+        <v>271</v>
+      </c>
+      <c r="D126" t="n">
+        <v>271</v>
+      </c>
+      <c r="E126" t="n">
+        <v>271</v>
+      </c>
+      <c r="F126" t="n">
+        <v>31.1765</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-20436.07942122001</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>271</v>
+      </c>
+      <c r="C127" t="n">
+        <v>270</v>
+      </c>
+      <c r="D127" t="n">
+        <v>271</v>
+      </c>
+      <c r="E127" t="n">
+        <v>270</v>
+      </c>
+      <c r="F127" t="n">
+        <v>6806.7613</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-27242.84072122</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>269</v>
+      </c>
+      <c r="C128" t="n">
+        <v>269</v>
+      </c>
+      <c r="D128" t="n">
+        <v>269</v>
+      </c>
+      <c r="E128" t="n">
+        <v>269</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-28242.84072122</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>269</v>
+      </c>
+      <c r="C129" t="n">
+        <v>269</v>
+      </c>
+      <c r="D129" t="n">
+        <v>269</v>
+      </c>
+      <c r="E129" t="n">
+        <v>269</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1032.0211</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-28242.84072122</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>269</v>
+      </c>
+      <c r="C130" t="n">
+        <v>269</v>
+      </c>
+      <c r="D130" t="n">
+        <v>269</v>
+      </c>
+      <c r="E130" t="n">
+        <v>269</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1896.9141</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-28242.84072122</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>270</v>
+      </c>
+      <c r="C131" t="n">
+        <v>270</v>
+      </c>
+      <c r="D131" t="n">
+        <v>270</v>
+      </c>
+      <c r="E131" t="n">
+        <v>270</v>
+      </c>
+      <c r="F131" t="n">
+        <v>70</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-28172.84072122</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>273</v>
+      </c>
+      <c r="C132" t="n">
+        <v>273</v>
+      </c>
+      <c r="D132" t="n">
+        <v>273</v>
+      </c>
+      <c r="E132" t="n">
+        <v>273</v>
+      </c>
+      <c r="F132" t="n">
+        <v>2.258</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-28170.58272122</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-20 BackTest PIVX.xlsx
+++ b/BackTest/2019-11-20 BackTest PIVX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M132"/>
+  <dimension ref="A1:N132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -448,7 +453,7 @@
         <v>5224.8995</v>
       </c>
       <c r="G2" t="n">
-        <v>-12017.11942122</v>
+        <v>265</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -483,7 +489,7 @@
         <v>80</v>
       </c>
       <c r="G3" t="n">
-        <v>-12097.11942122</v>
+        <v>264.5</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,7 +525,7 @@
         <v>80</v>
       </c>
       <c r="G4" t="n">
-        <v>-12017.11942122</v>
+        <v>264.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -553,7 +561,7 @@
         <v>1583</v>
       </c>
       <c r="G5" t="n">
-        <v>-10434.11942122</v>
+        <v>265.5</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -588,7 +597,7 @@
         <v>133</v>
       </c>
       <c r="G6" t="n">
-        <v>-10301.11942122</v>
+        <v>267</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -623,7 +633,7 @@
         <v>3286.2176</v>
       </c>
       <c r="G7" t="n">
-        <v>-13587.33702122</v>
+        <v>266.5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -658,7 +669,7 @@
         <v>2402.3999</v>
       </c>
       <c r="G8" t="n">
-        <v>-11184.93712122</v>
+        <v>266</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -693,7 +705,7 @@
         <v>1438.1717</v>
       </c>
       <c r="G9" t="n">
-        <v>-11184.93712122</v>
+        <v>267</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -728,7 +741,7 @@
         <v>895.66</v>
       </c>
       <c r="G10" t="n">
-        <v>-10289.27712122</v>
+        <v>268</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -763,7 +777,7 @@
         <v>9460.711300000001</v>
       </c>
       <c r="G11" t="n">
-        <v>-828.5658212200015</v>
+        <v>269.5</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -798,7 +813,7 @@
         <v>5275.729</v>
       </c>
       <c r="G12" t="n">
-        <v>-828.5658212200015</v>
+        <v>270</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -833,7 +849,7 @@
         <v>523.1249</v>
       </c>
       <c r="G13" t="n">
-        <v>-305.4409212200014</v>
+        <v>270.5</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -868,7 +885,7 @@
         <v>1867</v>
       </c>
       <c r="G14" t="n">
-        <v>-305.4409212200014</v>
+        <v>271</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -903,7 +921,7 @@
         <v>4</v>
       </c>
       <c r="G15" t="n">
-        <v>-305.4409212200014</v>
+        <v>271</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -938,7 +957,7 @@
         <v>1200</v>
       </c>
       <c r="G16" t="n">
-        <v>-305.4409212200014</v>
+        <v>271</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -973,7 +993,7 @@
         <v>606</v>
       </c>
       <c r="G17" t="n">
-        <v>-911.4409212200014</v>
+        <v>270</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1008,7 +1029,7 @@
         <v>2</v>
       </c>
       <c r="G18" t="n">
-        <v>-909.4409212200014</v>
+        <v>271.5</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1043,7 +1065,7 @@
         <v>487</v>
       </c>
       <c r="G19" t="n">
-        <v>-422.4409212200014</v>
+        <v>274.5</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1078,7 +1101,7 @@
         <v>1160</v>
       </c>
       <c r="G20" t="n">
-        <v>737.5590787799986</v>
+        <v>275.5</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1113,7 +1137,7 @@
         <v>614.5665</v>
       </c>
       <c r="G21" t="n">
-        <v>122.9925787799986</v>
+        <v>274</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1148,7 +1173,7 @@
         <v>9</v>
       </c>
       <c r="G22" t="n">
-        <v>131.9925787799986</v>
+        <v>273</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1183,7 +1209,7 @@
         <v>644.9335</v>
       </c>
       <c r="G23" t="n">
-        <v>131.9925787799986</v>
+        <v>274</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1218,7 +1245,7 @@
         <v>10545.4457</v>
       </c>
       <c r="G24" t="n">
-        <v>10677.43827878</v>
+        <v>274.5</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1253,7 +1281,7 @@
         <v>132</v>
       </c>
       <c r="G25" t="n">
-        <v>10545.43827878</v>
+        <v>272.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1288,7 +1317,7 @@
         <v>7904.1047</v>
       </c>
       <c r="G26" t="n">
-        <v>10545.43827878</v>
+        <v>270</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1323,7 +1353,7 @@
         <v>196</v>
       </c>
       <c r="G27" t="n">
-        <v>10349.43827878</v>
+        <v>269</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1358,7 +1389,7 @@
         <v>614.5665</v>
       </c>
       <c r="G28" t="n">
-        <v>10349.43827878</v>
+        <v>268</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1393,7 +1425,7 @@
         <v>1921.3628</v>
       </c>
       <c r="G29" t="n">
-        <v>12270.80107878</v>
+        <v>268.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1428,7 +1461,7 @@
         <v>12</v>
       </c>
       <c r="G30" t="n">
-        <v>12282.80107878</v>
+        <v>272</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1463,13 +1497,13 @@
         <v>1535.6081</v>
       </c>
       <c r="G31" t="n">
-        <v>10747.19297878</v>
+        <v>272.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1498,7 +1533,7 @@
         <v>1209.0596</v>
       </c>
       <c r="G32" t="n">
-        <v>9538.133378779999</v>
+        <v>269.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1533,7 +1569,7 @@
         <v>180.8337</v>
       </c>
       <c r="G33" t="n">
-        <v>9538.133378779999</v>
+        <v>269</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1568,7 +1605,7 @@
         <v>2.5</v>
       </c>
       <c r="G34" t="n">
-        <v>9538.133378779999</v>
+        <v>269</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1603,7 +1641,7 @@
         <v>4295.051</v>
       </c>
       <c r="G35" t="n">
-        <v>5243.082378779999</v>
+        <v>268.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1638,7 +1677,7 @@
         <v>13</v>
       </c>
       <c r="G36" t="n">
-        <v>5256.082378779999</v>
+        <v>269.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1673,7 +1713,7 @@
         <v>1996.3946</v>
       </c>
       <c r="G37" t="n">
-        <v>3259.687778779999</v>
+        <v>269.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,6 +1727,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1708,7 +1749,7 @@
         <v>378.845</v>
       </c>
       <c r="G38" t="n">
-        <v>2880.842778779999</v>
+        <v>267.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,6 +1763,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1743,7 +1785,7 @@
         <v>4004.5958</v>
       </c>
       <c r="G39" t="n">
-        <v>-1123.753021220001</v>
+        <v>266.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,6 +1799,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1778,26 +1821,21 @@
         <v>6349.9557</v>
       </c>
       <c r="G40" t="n">
-        <v>-7473.708721220001</v>
+        <v>265.5</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>266</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1819,7 +1857,7 @@
         <v>9</v>
       </c>
       <c r="G41" t="n">
-        <v>-7464.708721220001</v>
+        <v>266.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1829,14 +1867,11 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1858,7 +1893,7 @@
         <v>1610.6</v>
       </c>
       <c r="G42" t="n">
-        <v>-9075.308721220001</v>
+        <v>267.5</v>
       </c>
       <c r="H42" t="n">
         <v>1</v>
@@ -1869,15 +1904,14 @@
       <c r="J42" t="n">
         <v>268</v>
       </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="n">
+        <v>268</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1899,26 +1933,27 @@
         <v>1345.774</v>
       </c>
       <c r="G43" t="n">
-        <v>-7729.534721220001</v>
+        <v>267.5</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>267</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>268</v>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1940,7 +1975,7 @@
         <v>33</v>
       </c>
       <c r="G44" t="n">
-        <v>-7696.534721220001</v>
+        <v>268.5</v>
       </c>
       <c r="H44" t="n">
         <v>1</v>
@@ -1951,15 +1986,18 @@
       <c r="J44" t="n">
         <v>268</v>
       </c>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>268</v>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1981,7 +2019,7 @@
         <v>80</v>
       </c>
       <c r="G45" t="n">
-        <v>-7776.534721220001</v>
+        <v>268.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1991,14 +2029,11 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2020,7 +2055,7 @@
         <v>1578.099</v>
       </c>
       <c r="G46" t="n">
-        <v>-7776.534721220001</v>
+        <v>268</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2030,14 +2065,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2059,7 +2091,7 @@
         <v>67.9888</v>
       </c>
       <c r="G47" t="n">
-        <v>-7844.523521220001</v>
+        <v>267</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2069,14 +2101,11 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2098,7 +2127,7 @@
         <v>99</v>
       </c>
       <c r="G48" t="n">
-        <v>-7745.523521220001</v>
+        <v>267</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2108,14 +2137,11 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2137,7 +2163,7 @@
         <v>2280</v>
       </c>
       <c r="G49" t="n">
-        <v>-7745.523521220001</v>
+        <v>268</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2147,14 +2173,11 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2176,7 +2199,7 @@
         <v>3003.873</v>
       </c>
       <c r="G50" t="n">
-        <v>-10749.39652122</v>
+        <v>267</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2186,14 +2209,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2215,7 +2235,7 @@
         <v>290</v>
       </c>
       <c r="G51" t="n">
-        <v>-11039.39652122</v>
+        <v>265.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2225,14 +2245,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2254,7 +2271,7 @@
         <v>9200</v>
       </c>
       <c r="G52" t="n">
-        <v>-20239.39652122</v>
+        <v>264.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2264,14 +2281,11 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2293,7 +2307,7 @@
         <v>19.5474</v>
       </c>
       <c r="G53" t="n">
-        <v>-20219.84912122</v>
+        <v>265</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2303,14 +2317,11 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2332,7 +2343,7 @@
         <v>10921.6011</v>
       </c>
       <c r="G54" t="n">
-        <v>-31141.45022122</v>
+        <v>264.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2342,14 +2353,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2371,7 +2379,7 @@
         <v>136.4526</v>
       </c>
       <c r="G55" t="n">
-        <v>-31004.99762122</v>
+        <v>264.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2381,14 +2389,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2410,7 +2415,7 @@
         <v>6993.007</v>
       </c>
       <c r="G56" t="n">
-        <v>-37998.00462122</v>
+        <v>264</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2420,14 +2425,11 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2449,7 +2451,7 @@
         <v>257.9828</v>
       </c>
       <c r="G57" t="n">
-        <v>-37740.02182122001</v>
+        <v>263.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2459,14 +2461,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2488,26 +2487,21 @@
         <v>56</v>
       </c>
       <c r="G58" t="n">
-        <v>-37684.02182122001</v>
+        <v>265.5</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>265</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2529,7 +2523,7 @@
         <v>1884</v>
       </c>
       <c r="G59" t="n">
-        <v>-37684.02182122001</v>
+        <v>266</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2539,14 +2533,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2568,26 +2559,21 @@
         <v>4817</v>
       </c>
       <c r="G60" t="n">
-        <v>-42501.02182122001</v>
+        <v>265.5</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>266</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2609,26 +2595,21 @@
         <v>2141.7212</v>
       </c>
       <c r="G61" t="n">
-        <v>-44642.74302122001</v>
+        <v>264.5</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>265</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2650,7 +2631,7 @@
         <v>7560.526</v>
       </c>
       <c r="G62" t="n">
-        <v>-37082.21702122001</v>
+        <v>264.5</v>
       </c>
       <c r="H62" t="n">
         <v>1</v>
@@ -2661,15 +2642,14 @@
       <c r="J62" t="n">
         <v>264</v>
       </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="n">
+        <v>264</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2691,26 +2671,27 @@
         <v>201.2498</v>
       </c>
       <c r="G63" t="n">
-        <v>-37082.21702122001</v>
+        <v>265</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>265</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>264</v>
+      </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2732,7 +2713,7 @@
         <v>9375.0548</v>
       </c>
       <c r="G64" t="n">
-        <v>-27707.16222122001</v>
+        <v>265.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2741,15 +2722,18 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>264</v>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2771,26 +2755,21 @@
         <v>2036</v>
       </c>
       <c r="G65" t="n">
-        <v>-25671.16222122001</v>
+        <v>266.5</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>266</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2812,7 +2791,7 @@
         <v>7061.2998</v>
       </c>
       <c r="G66" t="n">
-        <v>-18609.86242122001</v>
+        <v>267.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2822,14 +2801,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2851,7 +2827,7 @@
         <v>6847.6181</v>
       </c>
       <c r="G67" t="n">
-        <v>-18609.86242122001</v>
+        <v>268</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2861,14 +2837,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2890,7 +2863,7 @@
         <v>1181.8458</v>
       </c>
       <c r="G68" t="n">
-        <v>-18609.86242122001</v>
+        <v>268</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2900,14 +2873,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2929,7 +2899,7 @@
         <v>4.7684</v>
       </c>
       <c r="G69" t="n">
-        <v>-18605.09402122001</v>
+        <v>269</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2939,14 +2909,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2968,7 +2935,7 @@
         <v>1055</v>
       </c>
       <c r="G70" t="n">
-        <v>-19660.09402122001</v>
+        <v>269</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2978,14 +2945,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3007,7 +2971,7 @@
         <v>407</v>
       </c>
       <c r="G71" t="n">
-        <v>-19660.09402122001</v>
+        <v>268</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3017,14 +2981,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3046,7 +3007,7 @@
         <v>1905</v>
       </c>
       <c r="G72" t="n">
-        <v>-17755.09402122001</v>
+        <v>268.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3056,14 +3017,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3085,7 +3043,7 @@
         <v>604.3999</v>
       </c>
       <c r="G73" t="n">
-        <v>-17755.09402122001</v>
+        <v>269</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3095,14 +3053,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3124,7 +3079,7 @@
         <v>15.9228</v>
       </c>
       <c r="G74" t="n">
-        <v>-17739.17122122001</v>
+        <v>269.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3134,14 +3089,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3163,7 +3115,7 @@
         <v>15.9228</v>
       </c>
       <c r="G75" t="n">
-        <v>-17755.09402122001</v>
+        <v>269.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3173,14 +3125,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3202,7 +3151,7 @@
         <v>3653.3285</v>
       </c>
       <c r="G76" t="n">
-        <v>-17755.09402122001</v>
+        <v>269</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3212,14 +3161,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3241,7 +3187,7 @@
         <v>40</v>
       </c>
       <c r="G77" t="n">
-        <v>-17755.09402122001</v>
+        <v>269</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3251,14 +3197,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3280,7 +3223,7 @@
         <v>1.9</v>
       </c>
       <c r="G78" t="n">
-        <v>-17753.19402122001</v>
+        <v>269.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3290,14 +3233,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3319,7 +3259,7 @@
         <v>2848.335</v>
       </c>
       <c r="G79" t="n">
-        <v>-17753.19402122001</v>
+        <v>270</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3329,14 +3269,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3358,7 +3295,7 @@
         <v>139</v>
       </c>
       <c r="G80" t="n">
-        <v>-17753.19402122001</v>
+        <v>270</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3368,14 +3305,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3397,7 +3331,7 @@
         <v>1119.3609</v>
       </c>
       <c r="G81" t="n">
-        <v>-18872.55492122001</v>
+        <v>269.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3407,14 +3341,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3436,7 +3367,7 @@
         <v>1.9</v>
       </c>
       <c r="G82" t="n">
-        <v>-18870.65492122</v>
+        <v>270</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3446,14 +3377,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3475,7 +3403,7 @@
         <v>410.4149</v>
       </c>
       <c r="G83" t="n">
-        <v>-18460.24002122</v>
+        <v>271.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3485,14 +3413,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3514,7 +3439,7 @@
         <v>395.6241</v>
       </c>
       <c r="G84" t="n">
-        <v>-18855.86412122001</v>
+        <v>270.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3524,14 +3449,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3553,7 +3475,7 @@
         <v>1121</v>
       </c>
       <c r="G85" t="n">
-        <v>-17734.86412122001</v>
+        <v>270.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3563,14 +3485,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3592,7 +3511,7 @@
         <v>221.35</v>
       </c>
       <c r="G86" t="n">
-        <v>-17513.51412122001</v>
+        <v>272.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3602,14 +3521,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3631,7 +3547,7 @@
         <v>278</v>
       </c>
       <c r="G87" t="n">
-        <v>-17235.51412122001</v>
+        <v>273.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3641,14 +3557,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3670,7 +3583,7 @@
         <v>1769.252</v>
       </c>
       <c r="G88" t="n">
-        <v>-19004.76612122001</v>
+        <v>272.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3680,14 +3593,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3709,7 +3619,7 @@
         <v>255.8865</v>
       </c>
       <c r="G89" t="n">
-        <v>-19004.76612122001</v>
+        <v>271</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3719,14 +3629,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3748,7 +3655,7 @@
         <v>1765.421</v>
       </c>
       <c r="G90" t="n">
-        <v>-19004.76612122001</v>
+        <v>271</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3758,14 +3665,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3787,7 +3691,7 @@
         <v>905.7</v>
       </c>
       <c r="G91" t="n">
-        <v>-18099.06612122001</v>
+        <v>271.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3797,14 +3701,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3826,7 +3727,7 @@
         <v>100</v>
       </c>
       <c r="G92" t="n">
-        <v>-17999.06612122001</v>
+        <v>273.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3836,14 +3737,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3865,7 +3763,7 @@
         <v>31.1765</v>
       </c>
       <c r="G93" t="n">
-        <v>-17999.06612122001</v>
+        <v>275</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3875,14 +3773,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3904,24 +3799,21 @@
         <v>334.8</v>
       </c>
       <c r="G94" t="n">
-        <v>-18333.86612122001</v>
+        <v>273.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3943,7 +3835,7 @@
         <v>4787.3186</v>
       </c>
       <c r="G95" t="n">
-        <v>-18333.86612122001</v>
+        <v>272</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3953,14 +3845,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3982,7 +3871,7 @@
         <v>6084.074</v>
       </c>
       <c r="G96" t="n">
-        <v>-24417.94012122001</v>
+        <v>271</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3992,14 +3881,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4021,7 +3907,7 @@
         <v>255.4633</v>
       </c>
       <c r="G97" t="n">
-        <v>-24162.47682122001</v>
+        <v>271</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4031,14 +3917,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4060,7 +3943,7 @@
         <v>2199.0564</v>
       </c>
       <c r="G98" t="n">
-        <v>-21963.42042122001</v>
+        <v>273.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4070,14 +3953,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4099,7 +3979,7 @@
         <v>5909.2096</v>
       </c>
       <c r="G99" t="n">
-        <v>-27872.63002122001</v>
+        <v>272.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4109,14 +3989,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4138,24 +4015,21 @@
         <v>1500</v>
       </c>
       <c r="G100" t="n">
-        <v>-26372.63002122001</v>
+        <v>272.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4177,24 +4051,21 @@
         <v>60</v>
       </c>
       <c r="G101" t="n">
-        <v>-26312.63002122001</v>
+        <v>275.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4216,7 +4087,7 @@
         <v>2067.5989</v>
       </c>
       <c r="G102" t="n">
-        <v>-28380.22892122001</v>
+        <v>273.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4226,12 +4097,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4253,7 +4123,7 @@
         <v>1741.375</v>
       </c>
       <c r="G103" t="n">
-        <v>-30121.60392122001</v>
+        <v>270.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4267,6 +4137,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4288,13 +4159,13 @@
         <v>1606.8445</v>
       </c>
       <c r="G104" t="n">
-        <v>-30121.60392122001</v>
+        <v>270</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4302,6 +4173,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4323,7 +4195,7 @@
         <v>64</v>
       </c>
       <c r="G105" t="n">
-        <v>-30121.60392122001</v>
+        <v>270</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4337,6 +4209,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4358,7 +4231,7 @@
         <v>6000</v>
       </c>
       <c r="G106" t="n">
-        <v>-30121.60392122001</v>
+        <v>270</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4372,6 +4245,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4393,7 +4267,7 @@
         <v>1800</v>
       </c>
       <c r="G107" t="n">
-        <v>-28321.60392122001</v>
+        <v>271</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4407,6 +4281,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4428,13 +4303,13 @@
         <v>1000</v>
       </c>
       <c r="G108" t="n">
-        <v>-27321.60392122001</v>
+        <v>273</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4442,6 +4317,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4463,13 +4339,13 @@
         <v>120</v>
       </c>
       <c r="G109" t="n">
-        <v>-27201.60392122001</v>
+        <v>275.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4477,6 +4353,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4498,7 +4375,7 @@
         <v>1477.6695</v>
       </c>
       <c r="G110" t="n">
-        <v>-28679.27342122001</v>
+        <v>275</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4512,6 +4389,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4533,13 +4411,13 @@
         <v>1316.21</v>
       </c>
       <c r="G111" t="n">
-        <v>-29995.48342122001</v>
+        <v>272</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4547,6 +4425,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4568,13 +4447,13 @@
         <v>1600</v>
       </c>
       <c r="G112" t="n">
-        <v>-28395.48342122001</v>
+        <v>272</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4582,6 +4461,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4603,13 +4483,13 @@
         <v>2163.3959</v>
       </c>
       <c r="G113" t="n">
-        <v>-28395.48342122001</v>
+        <v>273</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4617,6 +4497,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4638,7 +4519,7 @@
         <v>11</v>
       </c>
       <c r="G114" t="n">
-        <v>-28384.48342122001</v>
+        <v>274</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4652,6 +4533,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4673,7 +4555,7 @@
         <v>4216.717</v>
       </c>
       <c r="G115" t="n">
-        <v>-32601.20042122001</v>
+        <v>273</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4687,6 +4569,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4708,7 +4591,7 @@
         <v>3788.9</v>
       </c>
       <c r="G116" t="n">
-        <v>-28812.30042122001</v>
+        <v>271.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4722,6 +4605,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4743,7 +4627,7 @@
         <v>110</v>
       </c>
       <c r="G117" t="n">
-        <v>-28922.30042122001</v>
+        <v>271</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4757,6 +4641,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4778,13 +4663,13 @@
         <v>802</v>
       </c>
       <c r="G118" t="n">
-        <v>-28120.30042122001</v>
+        <v>271</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -4792,6 +4677,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4813,7 +4699,7 @@
         <v>663</v>
       </c>
       <c r="G119" t="n">
-        <v>-28783.30042122001</v>
+        <v>271.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4827,6 +4713,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4848,13 +4735,13 @@
         <v>8703.6754</v>
       </c>
       <c r="G120" t="n">
-        <v>-20079.62502122001</v>
+        <v>272</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -4862,6 +4749,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4883,7 +4771,7 @@
         <v>4</v>
       </c>
       <c r="G121" t="n">
-        <v>-20083.62502122001</v>
+        <v>272.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4897,6 +4785,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4918,7 +4807,7 @@
         <v>173.9999</v>
       </c>
       <c r="G122" t="n">
-        <v>-20257.62492122001</v>
+        <v>271.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4932,6 +4821,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4953,7 +4843,7 @@
         <v>796.0386</v>
       </c>
       <c r="G123" t="n">
-        <v>-19461.58632122001</v>
+        <v>272</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4967,6 +4857,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4988,7 +4879,7 @@
         <v>1111</v>
       </c>
       <c r="G124" t="n">
-        <v>-20572.58632122001</v>
+        <v>272</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5002,6 +4893,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5023,7 +4915,7 @@
         <v>167.6834</v>
       </c>
       <c r="G125" t="n">
-        <v>-20404.90292122</v>
+        <v>271.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5037,6 +4929,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5058,7 +4951,7 @@
         <v>31.1765</v>
       </c>
       <c r="G126" t="n">
-        <v>-20436.07942122001</v>
+        <v>271.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5072,6 +4965,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5093,7 +4987,7 @@
         <v>6806.7613</v>
       </c>
       <c r="G127" t="n">
-        <v>-27242.84072122</v>
+        <v>270.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5107,6 +5001,7 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5128,7 +5023,7 @@
         <v>1000</v>
       </c>
       <c r="G128" t="n">
-        <v>-28242.84072122</v>
+        <v>269.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5142,6 +5037,7 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5163,7 +5059,7 @@
         <v>1032.0211</v>
       </c>
       <c r="G129" t="n">
-        <v>-28242.84072122</v>
+        <v>269</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5177,6 +5073,7 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5198,7 +5095,7 @@
         <v>1896.9141</v>
       </c>
       <c r="G130" t="n">
-        <v>-28242.84072122</v>
+        <v>269</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5212,6 +5109,7 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5233,7 +5131,7 @@
         <v>70</v>
       </c>
       <c r="G131" t="n">
-        <v>-28172.84072122</v>
+        <v>269.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5247,6 +5145,7 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5268,7 +5167,7 @@
         <v>2.258</v>
       </c>
       <c r="G132" t="n">
-        <v>-28170.58272122</v>
+        <v>271.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5282,6 +5181,7 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-20 BackTest PIVX.xlsx
+++ b/BackTest/2019-11-20 BackTest PIVX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N132"/>
+  <dimension ref="A1:N161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C2" t="n">
         <v>265</v>
       </c>
       <c r="D2" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E2" t="n">
         <v>265</v>
       </c>
       <c r="F2" t="n">
-        <v>5224.8995</v>
+        <v>356</v>
       </c>
       <c r="G2" t="n">
-        <v>265</v>
+        <v>-9174.87442122</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C3" t="n">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D3" t="n">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E3" t="n">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F3" t="n">
-        <v>80</v>
+        <v>1.8657</v>
       </c>
       <c r="G3" t="n">
-        <v>264.5</v>
+        <v>-9173.00872122</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C4" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D4" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E4" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F4" t="n">
-        <v>80</v>
+        <v>6.3743</v>
       </c>
       <c r="G4" t="n">
-        <v>264.5</v>
+        <v>-9173.00872122</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C5" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D5" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E5" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F5" t="n">
-        <v>1583</v>
+        <v>700.9999</v>
       </c>
       <c r="G5" t="n">
-        <v>265.5</v>
+        <v>-9874.00862122</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C6" t="n">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D6" t="n">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E6" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F6" t="n">
-        <v>133</v>
+        <v>352</v>
       </c>
       <c r="G6" t="n">
-        <v>267</v>
+        <v>-9874.00862122</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C7" t="n">
         <v>265</v>
       </c>
       <c r="D7" t="n">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E7" t="n">
         <v>265</v>
       </c>
       <c r="F7" t="n">
-        <v>3286.2176</v>
+        <v>2920.8964</v>
       </c>
       <c r="G7" t="n">
-        <v>266.5</v>
+        <v>-9874.00862122</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C8" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D8" t="n">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E8" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F8" t="n">
-        <v>2402.3999</v>
+        <v>1681.5092</v>
       </c>
       <c r="G8" t="n">
-        <v>266</v>
+        <v>-9874.00862122</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C9" t="n">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D9" t="n">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E9" t="n">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F9" t="n">
-        <v>1438.1717</v>
+        <v>413.1316</v>
       </c>
       <c r="G9" t="n">
-        <v>267</v>
+        <v>-10287.14022122</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C10" t="n">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="D10" t="n">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="E10" t="n">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="F10" t="n">
-        <v>895.66</v>
+        <v>18436.5303</v>
       </c>
       <c r="G10" t="n">
-        <v>268</v>
+        <v>-28723.67052122</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C11" t="n">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="D11" t="n">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="E11" t="n">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F11" t="n">
-        <v>9460.711300000001</v>
+        <v>802.4</v>
       </c>
       <c r="G11" t="n">
-        <v>269.5</v>
+        <v>-28723.67052122</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="C12" t="n">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="D12" t="n">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="E12" t="n">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="F12" t="n">
-        <v>5275.729</v>
+        <v>1506.237</v>
       </c>
       <c r="G12" t="n">
-        <v>270</v>
+        <v>-28723.67052122</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C13" t="n">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="D13" t="n">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="E13" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="F13" t="n">
-        <v>523.1249</v>
+        <v>6.3743</v>
       </c>
       <c r="G13" t="n">
-        <v>270.5</v>
+        <v>-28730.04482122</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C14" t="n">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="D14" t="n">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="E14" t="n">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="F14" t="n">
-        <v>1867</v>
+        <v>2985.477</v>
       </c>
       <c r="G14" t="n">
-        <v>271</v>
+        <v>-25744.56782122</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C15" t="n">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="D15" t="n">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="E15" t="n">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F15" t="n">
-        <v>4</v>
+        <v>2112.9999</v>
       </c>
       <c r="G15" t="n">
-        <v>271</v>
+        <v>-23631.56792122</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C16" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D16" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E16" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F16" t="n">
-        <v>1200</v>
+        <v>5530.9071</v>
       </c>
       <c r="G16" t="n">
-        <v>271</v>
+        <v>-18100.66082122</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C17" t="n">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D17" t="n">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="E17" t="n">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F17" t="n">
-        <v>606</v>
+        <v>90</v>
       </c>
       <c r="G17" t="n">
-        <v>270</v>
+        <v>-18190.66082122</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C18" t="n">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="D18" t="n">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="E18" t="n">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>2740.4815</v>
       </c>
       <c r="G18" t="n">
-        <v>271.5</v>
+        <v>-18190.66082122</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="C19" t="n">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="D19" t="n">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="E19" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F19" t="n">
-        <v>487</v>
+        <v>2945.0229</v>
       </c>
       <c r="G19" t="n">
-        <v>274.5</v>
+        <v>-15245.63792122</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="C20" t="n">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="D20" t="n">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="E20" t="n">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F20" t="n">
-        <v>1160</v>
+        <v>1000</v>
       </c>
       <c r="G20" t="n">
-        <v>275.5</v>
+        <v>-16245.63792122</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,31 +1122,35 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="C21" t="n">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="D21" t="n">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="E21" t="n">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="F21" t="n">
-        <v>614.5665</v>
+        <v>3012.1366</v>
       </c>
       <c r="G21" t="n">
-        <v>274</v>
+        <v>-19257.77452122</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>262</v>
+      </c>
+      <c r="K21" t="n">
+        <v>262</v>
+      </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
@@ -1158,32 +1162,40 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="C22" t="n">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="D22" t="n">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="E22" t="n">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="F22" t="n">
-        <v>9</v>
+        <v>600</v>
       </c>
       <c r="G22" t="n">
-        <v>273</v>
+        <v>-19257.77452122</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>261</v>
+      </c>
+      <c r="K22" t="n">
+        <v>262</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1194,32 +1206,40 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="C23" t="n">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="D23" t="n">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="E23" t="n">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="F23" t="n">
-        <v>644.9335</v>
+        <v>147</v>
       </c>
       <c r="G23" t="n">
-        <v>274</v>
+        <v>-19257.77452122</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>261</v>
+      </c>
+      <c r="K23" t="n">
+        <v>262</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1230,31 +1250,35 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="C24" t="n">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="D24" t="n">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="E24" t="n">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F24" t="n">
-        <v>10545.4457</v>
+        <v>700.4655</v>
       </c>
       <c r="G24" t="n">
-        <v>274.5</v>
+        <v>-19958.24002122</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>261</v>
+      </c>
+      <c r="K24" t="n">
+        <v>261</v>
+      </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
@@ -1266,32 +1290,40 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C25" t="n">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="D25" t="n">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="E25" t="n">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="F25" t="n">
-        <v>132</v>
+        <v>1755.4143</v>
       </c>
       <c r="G25" t="n">
-        <v>272.5</v>
+        <v>-21713.65432122</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>260</v>
+      </c>
+      <c r="K25" t="n">
+        <v>261</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1302,32 +1334,40 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C26" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D26" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E26" t="n">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="F26" t="n">
-        <v>7904.1047</v>
+        <v>300</v>
       </c>
       <c r="G26" t="n">
-        <v>270</v>
+        <v>-21413.65432122</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>259</v>
+      </c>
+      <c r="K26" t="n">
+        <v>261</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1338,31 +1378,35 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C27" t="n">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D27" t="n">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E27" t="n">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F27" t="n">
-        <v>196</v>
+        <v>371</v>
       </c>
       <c r="G27" t="n">
-        <v>269</v>
+        <v>-21042.65432122</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>264</v>
+      </c>
+      <c r="K27" t="n">
+        <v>264</v>
+      </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
@@ -1374,22 +1418,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C28" t="n">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D28" t="n">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E28" t="n">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="F28" t="n">
-        <v>614.5665</v>
+        <v>2957</v>
       </c>
       <c r="G28" t="n">
-        <v>268</v>
+        <v>-21042.65432122</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1398,8 +1442,14 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>264</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1410,22 +1460,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C29" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D29" t="n">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E29" t="n">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F29" t="n">
-        <v>1921.3628</v>
+        <v>13290.4481</v>
       </c>
       <c r="G29" t="n">
-        <v>268.5</v>
+        <v>-7752.206221220002</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1434,8 +1484,14 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>264</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1446,22 +1502,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C30" t="n">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="D30" t="n">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="E30" t="n">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="F30" t="n">
-        <v>12</v>
+        <v>4264.9132</v>
       </c>
       <c r="G30" t="n">
-        <v>272</v>
+        <v>-12017.11942122</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1470,8 +1526,14 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>264</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1482,22 +1544,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C31" t="n">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D31" t="n">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E31" t="n">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F31" t="n">
-        <v>1535.6081</v>
+        <v>5224.8995</v>
       </c>
       <c r="G31" t="n">
-        <v>272.5</v>
+        <v>-12017.11942122</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1506,8 +1568,14 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>264</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1518,22 +1586,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C32" t="n">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D32" t="n">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E32" t="n">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F32" t="n">
-        <v>1209.0596</v>
+        <v>80</v>
       </c>
       <c r="G32" t="n">
-        <v>269.5</v>
+        <v>-12097.11942122</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1542,8 +1610,14 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>264</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1554,22 +1628,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C33" t="n">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D33" t="n">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E33" t="n">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F33" t="n">
-        <v>180.8337</v>
+        <v>80</v>
       </c>
       <c r="G33" t="n">
-        <v>269</v>
+        <v>-12017.11942122</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1578,8 +1652,14 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>264</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1590,22 +1670,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C34" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D34" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E34" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F34" t="n">
-        <v>2.5</v>
+        <v>1583</v>
       </c>
       <c r="G34" t="n">
-        <v>269</v>
+        <v>-10434.11942122</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1614,8 +1694,14 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>264</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1626,22 +1712,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C35" t="n">
         <v>268</v>
       </c>
       <c r="D35" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E35" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F35" t="n">
-        <v>4295.051</v>
+        <v>133</v>
       </c>
       <c r="G35" t="n">
-        <v>268.5</v>
+        <v>-10301.11942122</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1650,8 +1736,14 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>264</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1665,19 +1757,19 @@
         <v>268</v>
       </c>
       <c r="C36" t="n">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D36" t="n">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E36" t="n">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F36" t="n">
-        <v>13</v>
+        <v>3286.2176</v>
       </c>
       <c r="G36" t="n">
-        <v>269.5</v>
+        <v>-13587.33702122</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1686,8 +1778,14 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>264</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1698,22 +1796,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C37" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D37" t="n">
         <v>268</v>
       </c>
       <c r="E37" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F37" t="n">
-        <v>1996.3946</v>
+        <v>2402.3999</v>
       </c>
       <c r="G37" t="n">
-        <v>269.5</v>
+        <v>-11184.93712122</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1722,8 +1820,14 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>264</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1734,22 +1838,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C38" t="n">
         <v>267</v>
       </c>
       <c r="D38" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E38" t="n">
         <v>267</v>
       </c>
       <c r="F38" t="n">
-        <v>378.845</v>
+        <v>1438.1717</v>
       </c>
       <c r="G38" t="n">
-        <v>267.5</v>
+        <v>-11184.93712122</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1758,8 +1862,14 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>264</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1770,22 +1880,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C39" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D39" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E39" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F39" t="n">
-        <v>4004.5958</v>
+        <v>895.66</v>
       </c>
       <c r="G39" t="n">
-        <v>266.5</v>
+        <v>-10289.27712122</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1794,8 +1904,14 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>264</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1806,22 +1922,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C40" t="n">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D40" t="n">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="E40" t="n">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F40" t="n">
-        <v>6349.9557</v>
+        <v>9460.711300000001</v>
       </c>
       <c r="G40" t="n">
-        <v>265.5</v>
+        <v>-828.5658212200015</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1830,8 +1946,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>264</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1842,22 +1964,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C41" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D41" t="n">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="E41" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F41" t="n">
-        <v>9</v>
+        <v>5275.729</v>
       </c>
       <c r="G41" t="n">
-        <v>266.5</v>
+        <v>-828.5658212200015</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1866,8 +1988,14 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>264</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1878,36 +2006,38 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C42" t="n">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D42" t="n">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E42" t="n">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F42" t="n">
-        <v>1610.6</v>
+        <v>523.1249</v>
       </c>
       <c r="G42" t="n">
-        <v>267.5</v>
+        <v>-305.4409212200014</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>268</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>268</v>
-      </c>
-      <c r="L42" t="inlineStr"/>
+        <v>264</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1918,22 +2048,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C43" t="n">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D43" t="n">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E43" t="n">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F43" t="n">
-        <v>1345.774</v>
+        <v>1867</v>
       </c>
       <c r="G43" t="n">
-        <v>267.5</v>
+        <v>-305.4409212200014</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1943,11 +2073,11 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M43" t="n">
@@ -1960,38 +2090,36 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C44" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D44" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E44" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F44" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="G44" t="n">
-        <v>268.5</v>
+        <v>-305.4409212200014</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>268</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M44" t="n">
@@ -2004,22 +2132,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C45" t="n">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D45" t="n">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E45" t="n">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F45" t="n">
-        <v>80</v>
+        <v>1200</v>
       </c>
       <c r="G45" t="n">
-        <v>268.5</v>
+        <v>-305.4409212200014</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2028,8 +2156,14 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>264</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2040,22 +2174,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C46" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D46" t="n">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="E46" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F46" t="n">
-        <v>1578.099</v>
+        <v>606</v>
       </c>
       <c r="G46" t="n">
-        <v>268</v>
+        <v>-911.4409212200014</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2064,8 +2198,14 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>264</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2076,22 +2216,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C47" t="n">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="D47" t="n">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="E47" t="n">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="F47" t="n">
-        <v>67.9888</v>
+        <v>2</v>
       </c>
       <c r="G47" t="n">
-        <v>267</v>
+        <v>-909.4409212200014</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2100,8 +2240,14 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>264</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2112,22 +2258,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C48" t="n">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="D48" t="n">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="E48" t="n">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F48" t="n">
-        <v>99</v>
+        <v>487</v>
       </c>
       <c r="G48" t="n">
-        <v>267</v>
+        <v>-422.4409212200014</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2136,8 +2282,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>264</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2148,34 +2300,40 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="C49" t="n">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="D49" t="n">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E49" t="n">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F49" t="n">
-        <v>2280</v>
+        <v>1160</v>
       </c>
       <c r="G49" t="n">
-        <v>268</v>
+        <v>737.5590787799986</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>264</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M49" t="n">
-        <v>1</v>
+        <v>1.040454545454546</v>
       </c>
       <c r="N49" t="inlineStr"/>
     </row>
@@ -2184,28 +2342,28 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C50" t="n">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="D50" t="n">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="E50" t="n">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="F50" t="n">
-        <v>3003.873</v>
+        <v>614.5665</v>
       </c>
       <c r="G50" t="n">
-        <v>267</v>
+        <v>122.9925787799986</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2220,28 +2378,28 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="C51" t="n">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="D51" t="n">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="E51" t="n">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="F51" t="n">
-        <v>290</v>
+        <v>9</v>
       </c>
       <c r="G51" t="n">
-        <v>265.5</v>
+        <v>131.9925787799986</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2256,28 +2414,28 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="C52" t="n">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="D52" t="n">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="E52" t="n">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="F52" t="n">
-        <v>9200</v>
+        <v>644.9335</v>
       </c>
       <c r="G52" t="n">
-        <v>264.5</v>
+        <v>131.9925787799986</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2292,28 +2450,28 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="C53" t="n">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="D53" t="n">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="E53" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F53" t="n">
-        <v>19.5474</v>
+        <v>10545.4457</v>
       </c>
       <c r="G53" t="n">
-        <v>265</v>
+        <v>10677.43827878</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2328,28 +2486,28 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C54" t="n">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="D54" t="n">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E54" t="n">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="F54" t="n">
-        <v>10921.6011</v>
+        <v>132</v>
       </c>
       <c r="G54" t="n">
-        <v>264.5</v>
+        <v>10545.43827878</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2364,28 +2522,28 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C55" t="n">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D55" t="n">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="E55" t="n">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F55" t="n">
-        <v>136.4526</v>
+        <v>7904.1047</v>
       </c>
       <c r="G55" t="n">
-        <v>264.5</v>
+        <v>10545.43827878</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2400,28 +2558,28 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C56" t="n">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="D56" t="n">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="E56" t="n">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="F56" t="n">
-        <v>6993.007</v>
+        <v>196</v>
       </c>
       <c r="G56" t="n">
-        <v>264</v>
+        <v>10349.43827878</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2436,22 +2594,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C57" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D57" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E57" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F57" t="n">
-        <v>257.9828</v>
+        <v>614.5665</v>
       </c>
       <c r="G57" t="n">
-        <v>263.5</v>
+        <v>10349.43827878</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2472,28 +2630,28 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C58" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D58" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E58" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F58" t="n">
-        <v>56</v>
+        <v>1921.3628</v>
       </c>
       <c r="G58" t="n">
-        <v>265.5</v>
+        <v>12270.80107878</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2508,22 +2666,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="C59" t="n">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="D59" t="n">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="E59" t="n">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="F59" t="n">
-        <v>1884</v>
+        <v>12</v>
       </c>
       <c r="G59" t="n">
-        <v>266</v>
+        <v>12282.80107878</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2544,28 +2702,28 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="C60" t="n">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D60" t="n">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="E60" t="n">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="F60" t="n">
-        <v>4817</v>
+        <v>1535.6081</v>
       </c>
       <c r="G60" t="n">
-        <v>265.5</v>
+        <v>10747.19297878</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2580,28 +2738,28 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C61" t="n">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D61" t="n">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E61" t="n">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="F61" t="n">
-        <v>2141.7212</v>
+        <v>1209.0596</v>
       </c>
       <c r="G61" t="n">
-        <v>264.5</v>
+        <v>9538.133378779999</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2616,35 +2774,31 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C62" t="n">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D62" t="n">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E62" t="n">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F62" t="n">
-        <v>7560.526</v>
+        <v>180.8337</v>
       </c>
       <c r="G62" t="n">
-        <v>264.5</v>
+        <v>9538.133378779999</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>264</v>
-      </c>
-      <c r="K62" t="n">
-        <v>264</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
@@ -2656,22 +2810,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C63" t="n">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D63" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E63" t="n">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F63" t="n">
-        <v>201.2498</v>
+        <v>2.5</v>
       </c>
       <c r="G63" t="n">
-        <v>265</v>
+        <v>9538.133378779999</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2680,14 +2834,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>264</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2698,22 +2846,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C64" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D64" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E64" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F64" t="n">
-        <v>9375.0548</v>
+        <v>4295.051</v>
       </c>
       <c r="G64" t="n">
-        <v>265.5</v>
+        <v>5243.082378779999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2722,14 +2870,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>264</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2740,22 +2882,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C65" t="n">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D65" t="n">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E65" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F65" t="n">
-        <v>2036</v>
+        <v>13</v>
       </c>
       <c r="G65" t="n">
-        <v>266.5</v>
+        <v>5256.082378779999</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2785,13 +2927,13 @@
         <v>268</v>
       </c>
       <c r="E66" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F66" t="n">
-        <v>7061.2998</v>
+        <v>1996.3946</v>
       </c>
       <c r="G66" t="n">
-        <v>267.5</v>
+        <v>3259.687778779999</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2812,22 +2954,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C67" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D67" t="n">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E67" t="n">
         <v>267</v>
       </c>
       <c r="F67" t="n">
-        <v>6847.6181</v>
+        <v>378.845</v>
       </c>
       <c r="G67" t="n">
-        <v>268</v>
+        <v>2880.842778779999</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2848,22 +2990,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C68" t="n">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D68" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E68" t="n">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F68" t="n">
-        <v>1181.8458</v>
+        <v>4004.5958</v>
       </c>
       <c r="G68" t="n">
-        <v>268</v>
+        <v>-1123.753021220001</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2884,22 +3026,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C69" t="n">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D69" t="n">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E69" t="n">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F69" t="n">
-        <v>4.7684</v>
+        <v>6349.9557</v>
       </c>
       <c r="G69" t="n">
-        <v>269</v>
+        <v>-7473.708721220001</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2932,10 +3074,10 @@
         <v>268</v>
       </c>
       <c r="F70" t="n">
-        <v>1055</v>
+        <v>9</v>
       </c>
       <c r="G70" t="n">
-        <v>269</v>
+        <v>-7464.708721220001</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2956,22 +3098,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C71" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D71" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E71" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F71" t="n">
-        <v>407</v>
+        <v>1610.6</v>
       </c>
       <c r="G71" t="n">
-        <v>268</v>
+        <v>-9075.308721220001</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2992,22 +3134,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C72" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D72" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E72" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F72" t="n">
-        <v>1905</v>
+        <v>1345.774</v>
       </c>
       <c r="G72" t="n">
-        <v>268.5</v>
+        <v>-7729.534721220001</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3040,10 +3182,10 @@
         <v>269</v>
       </c>
       <c r="F73" t="n">
-        <v>604.3999</v>
+        <v>33</v>
       </c>
       <c r="G73" t="n">
-        <v>269</v>
+        <v>-7696.534721220001</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3064,22 +3206,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C74" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D74" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E74" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F74" t="n">
-        <v>15.9228</v>
+        <v>80</v>
       </c>
       <c r="G74" t="n">
-        <v>269.5</v>
+        <v>-7776.534721220001</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3100,22 +3242,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C75" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D75" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E75" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F75" t="n">
-        <v>15.9228</v>
+        <v>1578.099</v>
       </c>
       <c r="G75" t="n">
-        <v>269.5</v>
+        <v>-7776.534721220001</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3136,22 +3278,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C76" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D76" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E76" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F76" t="n">
-        <v>3653.3285</v>
+        <v>67.9888</v>
       </c>
       <c r="G76" t="n">
-        <v>269</v>
+        <v>-7844.523521220001</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3172,22 +3314,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C77" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D77" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E77" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F77" t="n">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="G77" t="n">
-        <v>269</v>
+        <v>-7745.523521220001</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3208,22 +3350,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C78" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D78" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E78" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F78" t="n">
-        <v>1.9</v>
+        <v>2280</v>
       </c>
       <c r="G78" t="n">
-        <v>269.5</v>
+        <v>-7745.523521220001</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3244,22 +3386,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C79" t="n">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D79" t="n">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E79" t="n">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F79" t="n">
-        <v>2848.335</v>
+        <v>3003.873</v>
       </c>
       <c r="G79" t="n">
-        <v>270</v>
+        <v>-10749.39652122</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3280,22 +3422,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C80" t="n">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D80" t="n">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E80" t="n">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F80" t="n">
-        <v>139</v>
+        <v>290</v>
       </c>
       <c r="G80" t="n">
-        <v>270</v>
+        <v>-11039.39652122</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3316,22 +3458,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C81" t="n">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D81" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E81" t="n">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F81" t="n">
-        <v>1119.3609</v>
+        <v>9200</v>
       </c>
       <c r="G81" t="n">
-        <v>269.5</v>
+        <v>-20239.39652122</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3352,22 +3494,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C82" t="n">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D82" t="n">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E82" t="n">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F82" t="n">
-        <v>1.9</v>
+        <v>19.5474</v>
       </c>
       <c r="G82" t="n">
-        <v>270</v>
+        <v>-20219.84912122</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3388,22 +3530,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C83" t="n">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="D83" t="n">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="E83" t="n">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="F83" t="n">
-        <v>410.4149</v>
+        <v>10921.6011</v>
       </c>
       <c r="G83" t="n">
-        <v>271.5</v>
+        <v>-31141.45022122</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3424,22 +3566,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C84" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D84" t="n">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E84" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F84" t="n">
-        <v>395.6241</v>
+        <v>136.4526</v>
       </c>
       <c r="G84" t="n">
-        <v>270.5</v>
+        <v>-31004.99762122</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3460,22 +3602,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C85" t="n">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="D85" t="n">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="E85" t="n">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="F85" t="n">
-        <v>1121</v>
+        <v>6993.007</v>
       </c>
       <c r="G85" t="n">
-        <v>270.5</v>
+        <v>-37998.00462122</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3496,22 +3638,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C86" t="n">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D86" t="n">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="E86" t="n">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F86" t="n">
-        <v>221.35</v>
+        <v>257.9828</v>
       </c>
       <c r="G86" t="n">
-        <v>272.5</v>
+        <v>-37740.02182122001</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3532,22 +3674,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C87" t="n">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D87" t="n">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E87" t="n">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F87" t="n">
-        <v>278</v>
+        <v>56</v>
       </c>
       <c r="G87" t="n">
-        <v>273.5</v>
+        <v>-37684.02182122001</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3568,22 +3710,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C88" t="n">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D88" t="n">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E88" t="n">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F88" t="n">
-        <v>1769.252</v>
+        <v>1884</v>
       </c>
       <c r="G88" t="n">
-        <v>272.5</v>
+        <v>-37684.02182122001</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3604,22 +3746,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C89" t="n">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D89" t="n">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E89" t="n">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F89" t="n">
-        <v>255.8865</v>
+        <v>4817</v>
       </c>
       <c r="G89" t="n">
-        <v>271</v>
+        <v>-42501.02182122001</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3640,22 +3782,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C90" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D90" t="n">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="E90" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F90" t="n">
-        <v>1765.421</v>
+        <v>2141.7212</v>
       </c>
       <c r="G90" t="n">
-        <v>271</v>
+        <v>-44642.74302122001</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3676,22 +3818,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C91" t="n">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D91" t="n">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="E91" t="n">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="F91" t="n">
-        <v>905.7</v>
+        <v>7560.526</v>
       </c>
       <c r="G91" t="n">
-        <v>271.5</v>
+        <v>-37082.21702122001</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3712,22 +3854,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C92" t="n">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="D92" t="n">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="E92" t="n">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="F92" t="n">
-        <v>100</v>
+        <v>201.2498</v>
       </c>
       <c r="G92" t="n">
-        <v>273.5</v>
+        <v>-37082.21702122001</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3748,22 +3890,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C93" t="n">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="D93" t="n">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="E93" t="n">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="F93" t="n">
-        <v>31.1765</v>
+        <v>9375.0548</v>
       </c>
       <c r="G93" t="n">
-        <v>275</v>
+        <v>-27707.16222122001</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3784,28 +3926,28 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C94" t="n">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D94" t="n">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E94" t="n">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F94" t="n">
-        <v>334.8</v>
+        <v>2036</v>
       </c>
       <c r="G94" t="n">
-        <v>273.5</v>
+        <v>-25671.16222122001</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -3820,22 +3962,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C95" t="n">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D95" t="n">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="E95" t="n">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F95" t="n">
-        <v>4787.3186</v>
+        <v>7061.2998</v>
       </c>
       <c r="G95" t="n">
-        <v>272</v>
+        <v>-18609.86242122001</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3856,22 +3998,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C96" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D96" t="n">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E96" t="n">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F96" t="n">
-        <v>6084.074</v>
+        <v>6847.6181</v>
       </c>
       <c r="G96" t="n">
-        <v>271</v>
+        <v>-18609.86242122001</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3892,22 +4034,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C97" t="n">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D97" t="n">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E97" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F97" t="n">
-        <v>255.4633</v>
+        <v>1181.8458</v>
       </c>
       <c r="G97" t="n">
-        <v>271</v>
+        <v>-18609.86242122001</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3928,22 +4070,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C98" t="n">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D98" t="n">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E98" t="n">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F98" t="n">
-        <v>2199.0564</v>
+        <v>4.7684</v>
       </c>
       <c r="G98" t="n">
-        <v>273.5</v>
+        <v>-18605.09402122001</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3964,22 +4106,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C99" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D99" t="n">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="E99" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F99" t="n">
-        <v>5909.2096</v>
+        <v>1055</v>
       </c>
       <c r="G99" t="n">
-        <v>272.5</v>
+        <v>-19660.09402122001</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4000,28 +4142,28 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C100" t="n">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D100" t="n">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="E100" t="n">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F100" t="n">
-        <v>1500</v>
+        <v>407</v>
       </c>
       <c r="G100" t="n">
-        <v>272.5</v>
+        <v>-19660.09402122001</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4036,28 +4178,28 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C101" t="n">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D101" t="n">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="E101" t="n">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F101" t="n">
-        <v>60</v>
+        <v>1905</v>
       </c>
       <c r="G101" t="n">
-        <v>275.5</v>
+        <v>-17755.09402122001</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4072,28 +4214,28 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C102" t="n">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D102" t="n">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="E102" t="n">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F102" t="n">
-        <v>2067.5989</v>
+        <v>604.3999</v>
       </c>
       <c r="G102" t="n">
-        <v>273.5</v>
+        <v>-17755.09402122001</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4120,10 +4262,10 @@
         <v>270</v>
       </c>
       <c r="F103" t="n">
-        <v>1741.375</v>
+        <v>15.9228</v>
       </c>
       <c r="G103" t="n">
-        <v>270.5</v>
+        <v>-17739.17122122001</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4144,28 +4286,28 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C104" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D104" t="n">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E104" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F104" t="n">
-        <v>1606.8445</v>
+        <v>15.9228</v>
       </c>
       <c r="G104" t="n">
-        <v>270</v>
+        <v>-17755.09402122001</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4180,22 +4322,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C105" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D105" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E105" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F105" t="n">
-        <v>64</v>
+        <v>3653.3285</v>
       </c>
       <c r="G105" t="n">
-        <v>270</v>
+        <v>-17755.09402122001</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4216,22 +4358,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C106" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D106" t="n">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E106" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F106" t="n">
-        <v>6000</v>
+        <v>40</v>
       </c>
       <c r="G106" t="n">
-        <v>270</v>
+        <v>-17755.09402122001</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4252,22 +4394,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C107" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D107" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E107" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F107" t="n">
-        <v>1800</v>
+        <v>1.9</v>
       </c>
       <c r="G107" t="n">
-        <v>271</v>
+        <v>-17753.19402122001</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4288,28 +4430,28 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C108" t="n">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D108" t="n">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E108" t="n">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F108" t="n">
-        <v>1000</v>
+        <v>2848.335</v>
       </c>
       <c r="G108" t="n">
-        <v>273</v>
+        <v>-17753.19402122001</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4324,28 +4466,28 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C109" t="n">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D109" t="n">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="E109" t="n">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F109" t="n">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="G109" t="n">
-        <v>275.5</v>
+        <v>-17753.19402122001</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4360,28 +4502,28 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C110" t="n">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D110" t="n">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E110" t="n">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F110" t="n">
-        <v>1477.6695</v>
+        <v>1119.3609</v>
       </c>
       <c r="G110" t="n">
-        <v>275</v>
+        <v>-18872.55492122001</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4408,16 +4550,16 @@
         <v>271</v>
       </c>
       <c r="F111" t="n">
-        <v>1316.21</v>
+        <v>1.9</v>
       </c>
       <c r="G111" t="n">
-        <v>272</v>
+        <v>-18870.65492122</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4432,28 +4574,28 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
+        <v>270</v>
+      </c>
+      <c r="C112" t="n">
         <v>272</v>
       </c>
-      <c r="C112" t="n">
-        <v>273</v>
-      </c>
       <c r="D112" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E112" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F112" t="n">
-        <v>1600</v>
+        <v>410.4149</v>
       </c>
       <c r="G112" t="n">
-        <v>272</v>
+        <v>-18460.24002122</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4468,28 +4610,28 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C113" t="n">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D113" t="n">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E113" t="n">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F113" t="n">
-        <v>2163.3959</v>
+        <v>395.6241</v>
       </c>
       <c r="G113" t="n">
-        <v>273</v>
+        <v>-18855.86412122001</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4504,28 +4646,28 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C114" t="n">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D114" t="n">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E114" t="n">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F114" t="n">
-        <v>11</v>
+        <v>1121</v>
       </c>
       <c r="G114" t="n">
-        <v>274</v>
+        <v>-17734.86412122001</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -4540,28 +4682,28 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C115" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D115" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E115" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F115" t="n">
-        <v>4216.717</v>
+        <v>221.35</v>
       </c>
       <c r="G115" t="n">
-        <v>273</v>
+        <v>-17513.51412122001</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4576,28 +4718,28 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C116" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D116" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E116" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F116" t="n">
-        <v>3788.9</v>
+        <v>278</v>
       </c>
       <c r="G116" t="n">
-        <v>271.5</v>
+        <v>-17235.51412122001</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4612,28 +4754,28 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C117" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D117" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E117" t="n">
         <v>270</v>
       </c>
       <c r="F117" t="n">
-        <v>110</v>
+        <v>1769.252</v>
       </c>
       <c r="G117" t="n">
-        <v>271</v>
+        <v>-19004.76612122001</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -4648,28 +4790,28 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C118" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D118" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E118" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F118" t="n">
-        <v>802</v>
+        <v>255.8865</v>
       </c>
       <c r="G118" t="n">
-        <v>271</v>
+        <v>-19004.76612122001</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -4684,22 +4826,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C119" t="n">
         <v>271</v>
       </c>
       <c r="D119" t="n">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E119" t="n">
         <v>271</v>
       </c>
       <c r="F119" t="n">
-        <v>663</v>
+        <v>1765.421</v>
       </c>
       <c r="G119" t="n">
-        <v>271.5</v>
+        <v>-19004.76612122001</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4720,28 +4862,28 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C120" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D120" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E120" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F120" t="n">
-        <v>8703.6754</v>
+        <v>905.7</v>
       </c>
       <c r="G120" t="n">
-        <v>272</v>
+        <v>-18099.06612122001</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -4756,28 +4898,28 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C121" t="n">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D121" t="n">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E121" t="n">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F121" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="G121" t="n">
-        <v>272.5</v>
+        <v>-17999.06612122001</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -4792,28 +4934,28 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C122" t="n">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D122" t="n">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E122" t="n">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F122" t="n">
-        <v>173.9999</v>
+        <v>31.1765</v>
       </c>
       <c r="G122" t="n">
-        <v>271.5</v>
+        <v>-17999.06612122001</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
@@ -4828,22 +4970,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C123" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D123" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E123" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F123" t="n">
-        <v>796.0386</v>
+        <v>334.8</v>
       </c>
       <c r="G123" t="n">
-        <v>272</v>
+        <v>-18333.86612122001</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4864,22 +5006,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C124" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D124" t="n">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E124" t="n">
         <v>271</v>
       </c>
       <c r="F124" t="n">
-        <v>1111</v>
+        <v>4787.3186</v>
       </c>
       <c r="G124" t="n">
-        <v>272</v>
+        <v>-18333.86612122001</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4900,22 +5042,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C125" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D125" t="n">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E125" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F125" t="n">
-        <v>167.6834</v>
+        <v>6084.074</v>
       </c>
       <c r="G125" t="n">
-        <v>271.5</v>
+        <v>-24417.94012122001</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4936,22 +5078,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C126" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D126" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E126" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F126" t="n">
-        <v>31.1765</v>
+        <v>255.4633</v>
       </c>
       <c r="G126" t="n">
-        <v>271.5</v>
+        <v>-24162.47682122001</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4972,22 +5114,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C127" t="n">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D127" t="n">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E127" t="n">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F127" t="n">
-        <v>6806.7613</v>
+        <v>2199.0564</v>
       </c>
       <c r="G127" t="n">
-        <v>270.5</v>
+        <v>-21963.42042122001</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5008,22 +5150,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C128" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D128" t="n">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="E128" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F128" t="n">
-        <v>1000</v>
+        <v>5909.2096</v>
       </c>
       <c r="G128" t="n">
-        <v>269.5</v>
+        <v>-27872.63002122001</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5044,22 +5186,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C129" t="n">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="D129" t="n">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="E129" t="n">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="F129" t="n">
-        <v>1032.0211</v>
+        <v>1500</v>
       </c>
       <c r="G129" t="n">
-        <v>269</v>
+        <v>-26372.63002122001</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5080,22 +5222,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C130" t="n">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="D130" t="n">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="E130" t="n">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="F130" t="n">
-        <v>1896.9141</v>
+        <v>60</v>
       </c>
       <c r="G130" t="n">
-        <v>269</v>
+        <v>-26312.63002122001</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5116,22 +5258,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C131" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D131" t="n">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="E131" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F131" t="n">
-        <v>70</v>
+        <v>2067.5989</v>
       </c>
       <c r="G131" t="n">
-        <v>269.5</v>
+        <v>-28380.22892122001</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5152,22 +5294,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C132" t="n">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D132" t="n">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E132" t="n">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F132" t="n">
-        <v>2.258</v>
+        <v>1741.375</v>
       </c>
       <c r="G132" t="n">
-        <v>271.5</v>
+        <v>-30121.60392122001</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5183,6 +5325,1050 @@
       </c>
       <c r="N132" t="inlineStr"/>
     </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>274</v>
+      </c>
+      <c r="C133" t="n">
+        <v>270</v>
+      </c>
+      <c r="D133" t="n">
+        <v>274</v>
+      </c>
+      <c r="E133" t="n">
+        <v>270</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1606.8445</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-30121.60392122001</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>270</v>
+      </c>
+      <c r="C134" t="n">
+        <v>270</v>
+      </c>
+      <c r="D134" t="n">
+        <v>270</v>
+      </c>
+      <c r="E134" t="n">
+        <v>270</v>
+      </c>
+      <c r="F134" t="n">
+        <v>64</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-30121.60392122001</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>271</v>
+      </c>
+      <c r="C135" t="n">
+        <v>270</v>
+      </c>
+      <c r="D135" t="n">
+        <v>271</v>
+      </c>
+      <c r="E135" t="n">
+        <v>270</v>
+      </c>
+      <c r="F135" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-30121.60392122001</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>271</v>
+      </c>
+      <c r="C136" t="n">
+        <v>272</v>
+      </c>
+      <c r="D136" t="n">
+        <v>272</v>
+      </c>
+      <c r="E136" t="n">
+        <v>271</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1800</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-28321.60392122001</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>273</v>
+      </c>
+      <c r="C137" t="n">
+        <v>274</v>
+      </c>
+      <c r="D137" t="n">
+        <v>274</v>
+      </c>
+      <c r="E137" t="n">
+        <v>273</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-27321.60392122001</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>274</v>
+      </c>
+      <c r="C138" t="n">
+        <v>277</v>
+      </c>
+      <c r="D138" t="n">
+        <v>277</v>
+      </c>
+      <c r="E138" t="n">
+        <v>274</v>
+      </c>
+      <c r="F138" t="n">
+        <v>120</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-27201.60392122001</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>273</v>
+      </c>
+      <c r="C139" t="n">
+        <v>273</v>
+      </c>
+      <c r="D139" t="n">
+        <v>273</v>
+      </c>
+      <c r="E139" t="n">
+        <v>273</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1477.6695</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-28679.27342122001</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>271</v>
+      </c>
+      <c r="C140" t="n">
+        <v>271</v>
+      </c>
+      <c r="D140" t="n">
+        <v>271</v>
+      </c>
+      <c r="E140" t="n">
+        <v>271</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1316.21</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-29995.48342122001</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>272</v>
+      </c>
+      <c r="C141" t="n">
+        <v>273</v>
+      </c>
+      <c r="D141" t="n">
+        <v>273</v>
+      </c>
+      <c r="E141" t="n">
+        <v>272</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-28395.48342122001</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>273</v>
+      </c>
+      <c r="C142" t="n">
+        <v>273</v>
+      </c>
+      <c r="D142" t="n">
+        <v>273</v>
+      </c>
+      <c r="E142" t="n">
+        <v>273</v>
+      </c>
+      <c r="F142" t="n">
+        <v>2163.3959</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-28395.48342122001</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>275</v>
+      </c>
+      <c r="C143" t="n">
+        <v>275</v>
+      </c>
+      <c r="D143" t="n">
+        <v>275</v>
+      </c>
+      <c r="E143" t="n">
+        <v>275</v>
+      </c>
+      <c r="F143" t="n">
+        <v>11</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-28384.48342122001</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>272</v>
+      </c>
+      <c r="C144" t="n">
+        <v>271</v>
+      </c>
+      <c r="D144" t="n">
+        <v>272</v>
+      </c>
+      <c r="E144" t="n">
+        <v>271</v>
+      </c>
+      <c r="F144" t="n">
+        <v>4216.717</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-32601.20042122001</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>272</v>
+      </c>
+      <c r="C145" t="n">
+        <v>272</v>
+      </c>
+      <c r="D145" t="n">
+        <v>272</v>
+      </c>
+      <c r="E145" t="n">
+        <v>272</v>
+      </c>
+      <c r="F145" t="n">
+        <v>3788.9</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-28812.30042122001</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>270</v>
+      </c>
+      <c r="C146" t="n">
+        <v>270</v>
+      </c>
+      <c r="D146" t="n">
+        <v>270</v>
+      </c>
+      <c r="E146" t="n">
+        <v>270</v>
+      </c>
+      <c r="F146" t="n">
+        <v>110</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-28922.30042122001</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>272</v>
+      </c>
+      <c r="C147" t="n">
+        <v>272</v>
+      </c>
+      <c r="D147" t="n">
+        <v>272</v>
+      </c>
+      <c r="E147" t="n">
+        <v>272</v>
+      </c>
+      <c r="F147" t="n">
+        <v>802</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-28120.30042122001</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>271</v>
+      </c>
+      <c r="C148" t="n">
+        <v>271</v>
+      </c>
+      <c r="D148" t="n">
+        <v>271</v>
+      </c>
+      <c r="E148" t="n">
+        <v>271</v>
+      </c>
+      <c r="F148" t="n">
+        <v>663</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-28783.30042122001</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>273</v>
+      </c>
+      <c r="C149" t="n">
+        <v>273</v>
+      </c>
+      <c r="D149" t="n">
+        <v>273</v>
+      </c>
+      <c r="E149" t="n">
+        <v>273</v>
+      </c>
+      <c r="F149" t="n">
+        <v>8703.6754</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-20079.62502122001</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>272</v>
+      </c>
+      <c r="C150" t="n">
+        <v>272</v>
+      </c>
+      <c r="D150" t="n">
+        <v>272</v>
+      </c>
+      <c r="E150" t="n">
+        <v>272</v>
+      </c>
+      <c r="F150" t="n">
+        <v>4</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-20083.62502122001</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>272</v>
+      </c>
+      <c r="C151" t="n">
+        <v>271</v>
+      </c>
+      <c r="D151" t="n">
+        <v>272</v>
+      </c>
+      <c r="E151" t="n">
+        <v>271</v>
+      </c>
+      <c r="F151" t="n">
+        <v>173.9999</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-20257.62492122001</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>273</v>
+      </c>
+      <c r="C152" t="n">
+        <v>273</v>
+      </c>
+      <c r="D152" t="n">
+        <v>273</v>
+      </c>
+      <c r="E152" t="n">
+        <v>273</v>
+      </c>
+      <c r="F152" t="n">
+        <v>796.0386</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-19461.58632122001</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>271</v>
+      </c>
+      <c r="C153" t="n">
+        <v>271</v>
+      </c>
+      <c r="D153" t="n">
+        <v>271</v>
+      </c>
+      <c r="E153" t="n">
+        <v>271</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1111</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-20572.58632122001</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>272</v>
+      </c>
+      <c r="C154" t="n">
+        <v>272</v>
+      </c>
+      <c r="D154" t="n">
+        <v>272</v>
+      </c>
+      <c r="E154" t="n">
+        <v>272</v>
+      </c>
+      <c r="F154" t="n">
+        <v>167.6834</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-20404.90292122</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>271</v>
+      </c>
+      <c r="C155" t="n">
+        <v>271</v>
+      </c>
+      <c r="D155" t="n">
+        <v>271</v>
+      </c>
+      <c r="E155" t="n">
+        <v>271</v>
+      </c>
+      <c r="F155" t="n">
+        <v>31.1765</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-20436.07942122001</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>271</v>
+      </c>
+      <c r="C156" t="n">
+        <v>270</v>
+      </c>
+      <c r="D156" t="n">
+        <v>271</v>
+      </c>
+      <c r="E156" t="n">
+        <v>270</v>
+      </c>
+      <c r="F156" t="n">
+        <v>6806.7613</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-27242.84072122</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>269</v>
+      </c>
+      <c r="C157" t="n">
+        <v>269</v>
+      </c>
+      <c r="D157" t="n">
+        <v>269</v>
+      </c>
+      <c r="E157" t="n">
+        <v>269</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-28242.84072122</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>269</v>
+      </c>
+      <c r="C158" t="n">
+        <v>269</v>
+      </c>
+      <c r="D158" t="n">
+        <v>269</v>
+      </c>
+      <c r="E158" t="n">
+        <v>269</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1032.0211</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-28242.84072122</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>269</v>
+      </c>
+      <c r="C159" t="n">
+        <v>269</v>
+      </c>
+      <c r="D159" t="n">
+        <v>269</v>
+      </c>
+      <c r="E159" t="n">
+        <v>269</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1896.9141</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-28242.84072122</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>270</v>
+      </c>
+      <c r="C160" t="n">
+        <v>270</v>
+      </c>
+      <c r="D160" t="n">
+        <v>270</v>
+      </c>
+      <c r="E160" t="n">
+        <v>270</v>
+      </c>
+      <c r="F160" t="n">
+        <v>70</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-28172.84072122</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>273</v>
+      </c>
+      <c r="C161" t="n">
+        <v>273</v>
+      </c>
+      <c r="D161" t="n">
+        <v>273</v>
+      </c>
+      <c r="E161" t="n">
+        <v>273</v>
+      </c>
+      <c r="F161" t="n">
+        <v>2.258</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-28170.58272122</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-11-20 BackTest PIVX.xlsx
+++ b/BackTest/2019-11-20 BackTest PIVX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N161"/>
+  <dimension ref="A1:M161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,22 +1078,15 @@
         <v>-19257.77452122</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>262</v>
-      </c>
-      <c r="K21" t="n">
-        <v>262</v>
-      </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1180,110 +1111,101 @@
         <v>-19257.77452122</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>261</v>
       </c>
       <c r="J22" t="n">
         <v>261</v>
       </c>
-      <c r="K22" t="n">
-        <v>262</v>
-      </c>
-      <c r="L22" t="inlineStr">
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>261</v>
+      </c>
+      <c r="C23" t="n">
+        <v>261</v>
+      </c>
+      <c r="D23" t="n">
+        <v>261</v>
+      </c>
+      <c r="E23" t="n">
+        <v>261</v>
+      </c>
+      <c r="F23" t="n">
+        <v>147</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-19257.77452122</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="n">
+        <v>261</v>
+      </c>
+      <c r="J23" t="n">
+        <v>261</v>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>260</v>
+      </c>
+      <c r="C24" t="n">
+        <v>260</v>
+      </c>
+      <c r="D24" t="n">
+        <v>260</v>
+      </c>
+      <c r="E24" t="n">
+        <v>260</v>
+      </c>
+      <c r="F24" t="n">
+        <v>700.4655</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-19958.24002122</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" t="n">
         <v>261</v>
       </c>
-      <c r="C23" t="n">
+      <c r="J24" t="n">
         <v>261</v>
       </c>
-      <c r="D23" t="n">
-        <v>261</v>
-      </c>
-      <c r="E23" t="n">
-        <v>261</v>
-      </c>
-      <c r="F23" t="n">
-        <v>147</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-19257.77452122</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>261</v>
-      </c>
-      <c r="K23" t="n">
-        <v>262</v>
-      </c>
-      <c r="L23" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>260</v>
-      </c>
-      <c r="C24" t="n">
-        <v>260</v>
-      </c>
-      <c r="D24" t="n">
-        <v>260</v>
-      </c>
-      <c r="E24" t="n">
-        <v>260</v>
-      </c>
-      <c r="F24" t="n">
-        <v>700.4655</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-19958.24002122</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>261</v>
-      </c>
-      <c r="K24" t="n">
-        <v>261</v>
-      </c>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1308,110 +1230,101 @@
         <v>-21713.65432122</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="J25" t="n">
         <v>260</v>
       </c>
-      <c r="K25" t="n">
-        <v>261</v>
-      </c>
-      <c r="L25" t="inlineStr">
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>262</v>
+      </c>
+      <c r="C26" t="n">
+        <v>264</v>
+      </c>
+      <c r="D26" t="n">
+        <v>264</v>
+      </c>
+      <c r="E26" t="n">
+        <v>262</v>
+      </c>
+      <c r="F26" t="n">
+        <v>300</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-21413.65432122</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" t="n">
+        <v>259</v>
+      </c>
+      <c r="J26" t="n">
+        <v>260</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>262</v>
-      </c>
-      <c r="C26" t="n">
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>265</v>
+      </c>
+      <c r="C27" t="n">
+        <v>265</v>
+      </c>
+      <c r="D27" t="n">
+        <v>265</v>
+      </c>
+      <c r="E27" t="n">
+        <v>265</v>
+      </c>
+      <c r="F27" t="n">
+        <v>371</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-21042.65432122</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" t="n">
         <v>264</v>
       </c>
-      <c r="D26" t="n">
-        <v>264</v>
-      </c>
-      <c r="E26" t="n">
-        <v>262</v>
-      </c>
-      <c r="F26" t="n">
-        <v>300</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-21413.65432122</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>259</v>
-      </c>
-      <c r="K26" t="n">
-        <v>261</v>
-      </c>
-      <c r="L26" t="inlineStr">
+      <c r="J27" t="n">
+        <v>260</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>265</v>
-      </c>
-      <c r="C27" t="n">
-        <v>265</v>
-      </c>
-      <c r="D27" t="n">
-        <v>265</v>
-      </c>
-      <c r="E27" t="n">
-        <v>265</v>
-      </c>
-      <c r="F27" t="n">
-        <v>371</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-21042.65432122</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>264</v>
-      </c>
-      <c r="K27" t="n">
-        <v>264</v>
-      </c>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1436,24 +1349,23 @@
         <v>-21042.65432122</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>264</v>
-      </c>
-      <c r="L28" t="inlineStr">
+        <v>265</v>
+      </c>
+      <c r="J28" t="n">
+        <v>260</v>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1480,22 +1392,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>264</v>
-      </c>
-      <c r="L29" t="inlineStr">
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>260</v>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1522,22 +1431,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>264</v>
-      </c>
-      <c r="L30" t="inlineStr">
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>260</v>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1564,22 +1470,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>264</v>
-      </c>
-      <c r="L31" t="inlineStr">
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>260</v>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1606,22 +1509,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>264</v>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>260</v>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1648,22 +1548,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>264</v>
-      </c>
-      <c r="L33" t="inlineStr">
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>260</v>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1690,22 +1587,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>264</v>
-      </c>
-      <c r="L34" t="inlineStr">
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>260</v>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1732,22 +1626,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>264</v>
-      </c>
-      <c r="L35" t="inlineStr">
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>260</v>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1774,22 +1665,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>264</v>
-      </c>
-      <c r="L36" t="inlineStr">
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>260</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1816,22 +1704,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>264</v>
-      </c>
-      <c r="L37" t="inlineStr">
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>260</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1858,22 +1743,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>264</v>
-      </c>
-      <c r="L38" t="inlineStr">
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>260</v>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1900,22 +1782,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>264</v>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>260</v>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1942,22 +1821,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>264</v>
-      </c>
-      <c r="L40" t="inlineStr">
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>260</v>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1984,22 +1860,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>264</v>
-      </c>
-      <c r="L41" t="inlineStr">
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>260</v>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2026,22 +1899,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>264</v>
-      </c>
-      <c r="L42" t="inlineStr">
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>260</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2068,22 +1938,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>264</v>
-      </c>
-      <c r="L43" t="inlineStr">
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>260</v>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2110,22 +1977,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>264</v>
-      </c>
-      <c r="L44" t="inlineStr">
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>260</v>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2152,22 +2016,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>264</v>
-      </c>
-      <c r="L45" t="inlineStr">
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>260</v>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2194,22 +2055,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>264</v>
-      </c>
-      <c r="L46" t="inlineStr">
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>260</v>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2234,24 +2092,21 @@
         <v>-909.4409212200014</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>264</v>
-      </c>
-      <c r="L47" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>260</v>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1.048846153846154</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2278,22 +2133,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>264</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2318,24 +2164,15 @@
         <v>737.5590787799986</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>264</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1.040454545454546</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2360,18 +2197,15 @@
         <v>122.9925787799986</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2396,18 +2230,15 @@
         <v>131.9925787799986</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2432,18 +2263,15 @@
         <v>131.9925787799986</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2468,18 +2296,15 @@
         <v>10677.43827878</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2504,18 +2329,15 @@
         <v>10545.43827878</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2540,18 +2362,15 @@
         <v>10545.43827878</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2576,18 +2395,15 @@
         <v>10349.43827878</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2614,16 +2430,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2648,18 +2461,15 @@
         <v>12270.80107878</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2686,16 +2496,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2722,16 +2529,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2756,18 +2560,15 @@
         <v>9538.133378779999</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2794,16 +2595,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2830,16 +2628,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2866,16 +2661,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2902,16 +2694,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2938,16 +2727,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2972,18 +2758,15 @@
         <v>2880.842778779999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3010,16 +2793,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3044,18 +2824,15 @@
         <v>-7473.708721220001</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3082,16 +2859,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3116,18 +2890,15 @@
         <v>-9075.308721220001</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3154,16 +2925,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3188,18 +2956,15 @@
         <v>-7696.534721220001</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3226,16 +2991,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3262,16 +3024,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3298,16 +3057,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3334,16 +3090,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3370,16 +3123,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3406,16 +3156,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3442,16 +3189,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3478,16 +3222,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3514,16 +3255,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3550,16 +3288,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3586,16 +3321,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3622,16 +3354,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3658,16 +3387,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3694,16 +3420,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3730,16 +3453,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3766,16 +3486,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3802,16 +3519,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3838,16 +3552,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3874,16 +3585,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3910,16 +3618,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3946,16 +3651,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3982,16 +3684,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4018,16 +3717,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4054,16 +3750,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4090,16 +3783,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4126,16 +3816,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4162,16 +3849,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4198,16 +3882,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4234,16 +3915,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4270,16 +3948,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4306,16 +3981,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4342,16 +4014,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4378,16 +4047,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4414,16 +4080,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4450,16 +4113,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4486,16 +4146,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4522,16 +4179,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4558,16 +4212,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4594,16 +4245,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4630,16 +4278,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4666,16 +4311,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4702,16 +4344,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4738,16 +4377,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4774,16 +4410,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4808,18 +4441,15 @@
         <v>-19004.76612122001</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4844,18 +4474,15 @@
         <v>-19004.76612122001</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4880,18 +4507,15 @@
         <v>-18099.06612122001</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4916,18 +4540,15 @@
         <v>-17999.06612122001</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4952,18 +4573,15 @@
         <v>-17999.06612122001</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4988,18 +4606,15 @@
         <v>-18333.86612122001</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5024,18 +4639,15 @@
         <v>-18333.86612122001</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5060,18 +4672,15 @@
         <v>-24417.94012122001</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5096,18 +4705,15 @@
         <v>-24162.47682122001</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5134,16 +4740,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5170,16 +4773,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5206,16 +4806,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5242,16 +4839,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5278,16 +4872,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5314,16 +4905,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5350,16 +4938,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5386,16 +4971,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5422,16 +5004,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5458,16 +5037,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5494,16 +5070,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5530,16 +5103,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5566,16 +5136,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5602,16 +5169,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5638,16 +5202,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5674,16 +5235,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5710,16 +5268,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5744,18 +5299,15 @@
         <v>-32601.20042122001</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5782,16 +5334,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5818,16 +5367,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5854,16 +5400,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5890,16 +5433,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5926,16 +5466,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5962,16 +5499,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5998,16 +5532,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6034,16 +5565,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6070,16 +5598,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6106,16 +5631,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6142,16 +5664,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6178,16 +5697,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6214,16 +5730,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6250,16 +5763,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6286,16 +5796,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6322,16 +5829,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6358,18 +5862,15 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-20 BackTest PIVX.xlsx
+++ b/BackTest/2019-11-20 BackTest PIVX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1012,10 +1012,14 @@
         <v>-15245.63792122</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>263</v>
+      </c>
+      <c r="J19" t="n">
+        <v>263</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
@@ -1048,8 +1052,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>263</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1088,19 @@
         <v>-19257.77452122</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>262</v>
+      </c>
+      <c r="J21" t="n">
+        <v>263</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,7 +1129,7 @@
         <v>-19257.77452122</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>261</v>
@@ -1148,7 +1166,7 @@
         <v>-19257.77452122</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>261</v>
@@ -1189,7 +1207,7 @@
         <v>-19958.24002122</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>261</v>
@@ -1230,7 +1248,7 @@
         <v>-21713.65432122</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>260</v>
@@ -1267,7 +1285,7 @@
         <v>-21413.65432122</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>259</v>
@@ -1308,7 +1326,7 @@
         <v>-21042.65432122</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>264</v>
@@ -1349,19 +1367,11 @@
         <v>-21042.65432122</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>265</v>
-      </c>
-      <c r="J28" t="n">
-        <v>260</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1393,14 +1403,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>260</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1432,14 +1436,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>260</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1471,14 +1469,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>260</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1510,14 +1502,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>260</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1549,14 +1535,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>260</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1588,14 +1568,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>260</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1627,14 +1601,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>260</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1666,14 +1634,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>260</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1705,14 +1667,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>260</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1744,14 +1700,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>260</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1783,14 +1733,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>260</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1822,14 +1766,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>260</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1861,14 +1799,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>260</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1900,14 +1832,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>260</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1939,14 +1865,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>260</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1978,14 +1898,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>260</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2017,14 +1931,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>260</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2056,14 +1964,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>260</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2092,19 +1994,13 @@
         <v>-909.4409212200014</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>260</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
-        <v>1.048846153846154</v>
+        <v>1</v>
       </c>
       <c r="M47" t="inlineStr"/>
     </row>
@@ -2164,7 +2060,7 @@
         <v>737.5590787799986</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2197,7 +2093,7 @@
         <v>122.9925787799986</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2230,7 +2126,7 @@
         <v>131.9925787799986</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2263,7 +2159,7 @@
         <v>131.9925787799986</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2296,7 +2192,7 @@
         <v>10677.43827878</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2329,7 +2225,7 @@
         <v>10545.43827878</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2362,7 +2258,7 @@
         <v>10545.43827878</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2395,7 +2291,7 @@
         <v>10349.43827878</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2461,7 +2357,7 @@
         <v>12270.80107878</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2560,7 +2456,7 @@
         <v>9538.133378779999</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2659,7 +2555,7 @@
         <v>5243.082378779999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2692,7 +2588,7 @@
         <v>5256.082378779999</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2725,7 +2621,7 @@
         <v>3259.687778779999</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2758,7 +2654,7 @@
         <v>2880.842778779999</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2791,7 +2687,7 @@
         <v>-1123.753021220001</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2824,7 +2720,7 @@
         <v>-7473.708721220001</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2857,7 +2753,7 @@
         <v>-7464.708721220001</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2890,7 +2786,7 @@
         <v>-9075.308721220001</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2923,7 +2819,7 @@
         <v>-7729.534721220001</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2956,7 +2852,7 @@
         <v>-7696.534721220001</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2989,7 +2885,7 @@
         <v>-7776.534721220001</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3022,7 +2918,7 @@
         <v>-7776.534721220001</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3055,7 +2951,7 @@
         <v>-7844.523521220001</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3088,7 +2984,7 @@
         <v>-7745.523521220001</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3121,7 +3017,7 @@
         <v>-7745.523521220001</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3154,7 +3050,7 @@
         <v>-10749.39652122</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3187,7 +3083,7 @@
         <v>-11039.39652122</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3220,7 +3116,7 @@
         <v>-20239.39652122</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3253,7 +3149,7 @@
         <v>-20219.84912122</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3286,7 +3182,7 @@
         <v>-31141.45022122</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3319,7 +3215,7 @@
         <v>-31004.99762122</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3352,7 +3248,7 @@
         <v>-37998.00462122</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3385,7 +3281,7 @@
         <v>-37740.02182122001</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3418,7 +3314,7 @@
         <v>-37684.02182122001</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3451,7 +3347,7 @@
         <v>-37684.02182122001</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3484,7 +3380,7 @@
         <v>-42501.02182122001</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3517,7 +3413,7 @@
         <v>-44642.74302122001</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3550,7 +3446,7 @@
         <v>-37082.21702122001</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3583,7 +3479,7 @@
         <v>-37082.21702122001</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3649,7 +3545,7 @@
         <v>-25671.16222122001</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3682,7 +3578,7 @@
         <v>-18609.86242122001</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3715,7 +3611,7 @@
         <v>-18609.86242122001</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -4441,7 +4337,7 @@
         <v>-19004.76612122001</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4474,7 +4370,7 @@
         <v>-19004.76612122001</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4507,7 +4403,7 @@
         <v>-18099.06612122001</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4540,7 +4436,7 @@
         <v>-17999.06612122001</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4573,7 +4469,7 @@
         <v>-17999.06612122001</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4606,7 +4502,7 @@
         <v>-18333.86612122001</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4639,7 +4535,7 @@
         <v>-18333.86612122001</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4672,7 +4568,7 @@
         <v>-24417.94012122001</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4705,7 +4601,7 @@
         <v>-24162.47682122001</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4804,7 +4700,7 @@
         <v>-26372.63002122001</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4936,7 +4832,7 @@
         <v>-30121.60392122001</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4969,7 +4865,7 @@
         <v>-30121.60392122001</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5002,7 +4898,7 @@
         <v>-30121.60392122001</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5035,7 +4931,7 @@
         <v>-28321.60392122001</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5068,7 +4964,7 @@
         <v>-27321.60392122001</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5101,7 +4997,7 @@
         <v>-27201.60392122001</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5134,7 +5030,7 @@
         <v>-28679.27342122001</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5167,7 +5063,7 @@
         <v>-29995.48342122001</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5200,7 +5096,7 @@
         <v>-28395.48342122001</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5233,7 +5129,7 @@
         <v>-28395.48342122001</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5266,7 +5162,7 @@
         <v>-28384.48342122001</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5299,7 +5195,7 @@
         <v>-32601.20042122001</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5332,7 +5228,7 @@
         <v>-28812.30042122001</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5365,7 +5261,7 @@
         <v>-28922.30042122001</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5398,7 +5294,7 @@
         <v>-28120.30042122001</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5431,7 +5327,7 @@
         <v>-28783.30042122001</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5464,7 +5360,7 @@
         <v>-20079.62502122001</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5497,7 +5393,7 @@
         <v>-20083.62502122001</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5530,7 +5426,7 @@
         <v>-20257.62492122001</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5563,7 +5459,7 @@
         <v>-19461.58632122001</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5596,7 +5492,7 @@
         <v>-20572.58632122001</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5629,7 +5525,7 @@
         <v>-20404.90292122</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5662,7 +5558,7 @@
         <v>-20436.07942122001</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5695,7 +5591,7 @@
         <v>-27242.84072122</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5728,7 +5624,7 @@
         <v>-28242.84072122</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5761,7 +5657,7 @@
         <v>-28242.84072122</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5794,7 +5690,7 @@
         <v>-28242.84072122</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5827,7 +5723,7 @@
         <v>-28172.84072122</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5860,7 +5756,7 @@
         <v>-28170.58272122</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5871,6 +5767,6 @@
       <c r="M161" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-20 BackTest PIVX.xlsx
+++ b/BackTest/2019-11-20 BackTest PIVX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1012,14 +1012,10 @@
         <v>-15245.63792122</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>263</v>
-      </c>
-      <c r="J19" t="n">
-        <v>263</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
@@ -1052,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>263</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1088,19 +1078,11 @@
         <v>-19257.77452122</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>262</v>
-      </c>
-      <c r="J21" t="n">
-        <v>263</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1129,14 +1111,10 @@
         <v>-19257.77452122</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>261</v>
-      </c>
-      <c r="J22" t="n">
-        <v>261</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
@@ -1166,19 +1144,11 @@
         <v>-19257.77452122</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>261</v>
-      </c>
-      <c r="J23" t="n">
-        <v>261</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1207,19 +1177,11 @@
         <v>-19958.24002122</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>261</v>
-      </c>
-      <c r="J24" t="n">
-        <v>261</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1326,11 +1288,9 @@
         <v>-21042.65432122</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>264</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
         <v>260</v>
       </c>
@@ -1433,7 +1393,7 @@
         <v>-12017.11942122</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1466,7 +1426,7 @@
         <v>-12017.11942122</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1499,7 +1459,7 @@
         <v>-12097.11942122</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1532,7 +1492,7 @@
         <v>-12017.11942122</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -2555,7 +2515,7 @@
         <v>5243.082378779999</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2588,7 +2548,7 @@
         <v>5256.082378779999</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2621,7 +2581,7 @@
         <v>3259.687778779999</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2654,7 +2614,7 @@
         <v>2880.842778779999</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2687,7 +2647,7 @@
         <v>-1123.753021220001</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2720,7 +2680,7 @@
         <v>-7473.708721220001</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2753,7 +2713,7 @@
         <v>-7464.708721220001</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2786,7 +2746,7 @@
         <v>-9075.308721220001</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2819,7 +2779,7 @@
         <v>-7729.534721220001</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2918,7 +2878,7 @@
         <v>-7776.534721220001</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2951,7 +2911,7 @@
         <v>-7844.523521220001</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2984,7 +2944,7 @@
         <v>-7745.523521220001</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3017,7 +2977,7 @@
         <v>-7745.523521220001</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3050,7 +3010,7 @@
         <v>-10749.39652122</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3083,7 +3043,7 @@
         <v>-11039.39652122</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3116,7 +3076,7 @@
         <v>-20239.39652122</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3149,7 +3109,7 @@
         <v>-20219.84912122</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3182,7 +3142,7 @@
         <v>-31141.45022122</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3215,7 +3175,7 @@
         <v>-31004.99762122</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3248,7 +3208,7 @@
         <v>-37998.00462122</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3281,7 +3241,7 @@
         <v>-37740.02182122001</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3314,7 +3274,7 @@
         <v>-37684.02182122001</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3347,7 +3307,7 @@
         <v>-37684.02182122001</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3380,7 +3340,7 @@
         <v>-42501.02182122001</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3413,7 +3373,7 @@
         <v>-44642.74302122001</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3446,7 +3406,7 @@
         <v>-37082.21702122001</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3479,7 +3439,7 @@
         <v>-37082.21702122001</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3545,7 +3505,7 @@
         <v>-25671.16222122001</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3578,7 +3538,7 @@
         <v>-18609.86242122001</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3611,7 +3571,7 @@
         <v>-18609.86242122001</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -4700,7 +4660,7 @@
         <v>-26372.63002122001</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4832,7 +4792,7 @@
         <v>-30121.60392122001</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4865,7 +4825,7 @@
         <v>-30121.60392122001</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4898,7 +4858,7 @@
         <v>-30121.60392122001</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4931,7 +4891,7 @@
         <v>-28321.60392122001</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4964,7 +4924,7 @@
         <v>-27321.60392122001</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4997,7 +4957,7 @@
         <v>-27201.60392122001</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5030,7 +4990,7 @@
         <v>-28679.27342122001</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5063,7 +5023,7 @@
         <v>-29995.48342122001</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5096,7 +5056,7 @@
         <v>-28395.48342122001</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5129,7 +5089,7 @@
         <v>-28395.48342122001</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5162,7 +5122,7 @@
         <v>-28384.48342122001</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5195,7 +5155,7 @@
         <v>-32601.20042122001</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5228,7 +5188,7 @@
         <v>-28812.30042122001</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5261,7 +5221,7 @@
         <v>-28922.30042122001</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5294,7 +5254,7 @@
         <v>-28120.30042122001</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5327,7 +5287,7 @@
         <v>-28783.30042122001</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5360,7 +5320,7 @@
         <v>-20079.62502122001</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5393,7 +5353,7 @@
         <v>-20083.62502122001</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5426,7 +5386,7 @@
         <v>-20257.62492122001</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5459,7 +5419,7 @@
         <v>-19461.58632122001</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5492,7 +5452,7 @@
         <v>-20572.58632122001</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5525,7 +5485,7 @@
         <v>-20404.90292122</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5558,7 +5518,7 @@
         <v>-20436.07942122001</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5591,7 +5551,7 @@
         <v>-27242.84072122</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5624,7 +5584,7 @@
         <v>-28242.84072122</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5657,7 +5617,7 @@
         <v>-28242.84072122</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5690,7 +5650,7 @@
         <v>-28242.84072122</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5723,7 +5683,7 @@
         <v>-28172.84072122</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5756,7 +5716,7 @@
         <v>-28170.58272122</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5767,6 +5727,6 @@
       <c r="M161" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-20 BackTest PIVX.xlsx
+++ b/BackTest/2019-11-20 BackTest PIVX.xlsx
@@ -1078,10 +1078,14 @@
         <v>-19257.77452122</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>262</v>
+      </c>
+      <c r="J21" t="n">
+        <v>262</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
@@ -1111,11 +1115,19 @@
         <v>-19257.77452122</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>261</v>
+      </c>
+      <c r="J22" t="n">
+        <v>262</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1156,19 @@
         <v>-19257.77452122</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>261</v>
+      </c>
+      <c r="J23" t="n">
+        <v>262</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,10 +1197,14 @@
         <v>-19958.24002122</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>261</v>
+      </c>
+      <c r="J24" t="n">
+        <v>261</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
@@ -1216,9 +1240,13 @@
         <v>260</v>
       </c>
       <c r="J25" t="n">
-        <v>260</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
+        <v>261</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1253,7 +1281,7 @@
         <v>259</v>
       </c>
       <c r="J26" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1291,14 +1319,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>260</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1393,7 +1415,7 @@
         <v>-12017.11942122</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1426,7 +1448,7 @@
         <v>-12017.11942122</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1459,7 +1481,7 @@
         <v>-12097.11942122</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1492,10 +1514,14 @@
         <v>-12017.11942122</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>264</v>
+      </c>
+      <c r="J33" t="n">
+        <v>264</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
@@ -1525,11 +1551,19 @@
         <v>-10434.11942122</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>265</v>
+      </c>
+      <c r="J34" t="n">
+        <v>264</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1561,8 +1595,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>264</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -2020,7 +2060,7 @@
         <v>737.5590787799986</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2053,7 +2093,7 @@
         <v>122.9925787799986</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2086,7 +2126,7 @@
         <v>131.9925787799986</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2119,7 +2159,7 @@
         <v>131.9925787799986</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2152,7 +2192,7 @@
         <v>10677.43827878</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2185,7 +2225,7 @@
         <v>10545.43827878</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2218,7 +2258,7 @@
         <v>10545.43827878</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2251,7 +2291,7 @@
         <v>10349.43827878</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2284,7 +2324,7 @@
         <v>10349.43827878</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2350,7 +2390,7 @@
         <v>12282.80107878</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2383,7 +2423,7 @@
         <v>10747.19297878</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2416,7 +2456,7 @@
         <v>9538.133378779999</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2449,7 +2489,7 @@
         <v>9538.133378779999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2482,7 +2522,7 @@
         <v>9538.133378779999</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2515,7 +2555,7 @@
         <v>5243.082378779999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2548,7 +2588,7 @@
         <v>5256.082378779999</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2581,7 +2621,7 @@
         <v>3259.687778779999</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2614,7 +2654,7 @@
         <v>2880.842778779999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2647,7 +2687,7 @@
         <v>-1123.753021220001</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2680,7 +2720,7 @@
         <v>-7473.708721220001</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2812,7 +2852,7 @@
         <v>-7696.534721220001</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2845,7 +2885,7 @@
         <v>-7776.534721220001</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -4429,7 +4469,7 @@
         <v>-17999.06612122001</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4462,7 +4502,7 @@
         <v>-18333.86612122001</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4495,7 +4535,7 @@
         <v>-18333.86612122001</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4528,7 +4568,7 @@
         <v>-24417.94012122001</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4594,7 +4634,7 @@
         <v>-21963.42042122001</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4627,7 +4667,7 @@
         <v>-27872.63002122001</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4660,7 +4700,7 @@
         <v>-26372.63002122001</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4693,7 +4733,7 @@
         <v>-26312.63002122001</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4726,7 +4766,7 @@
         <v>-28380.22892122001</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4759,7 +4799,7 @@
         <v>-30121.60392122001</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4990,7 +5030,7 @@
         <v>-28679.27342122001</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5023,7 +5063,7 @@
         <v>-29995.48342122001</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5122,7 +5162,7 @@
         <v>-28384.48342122001</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5155,7 +5195,7 @@
         <v>-32601.20042122001</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5188,7 +5228,7 @@
         <v>-28812.30042122001</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5386,7 +5426,7 @@
         <v>-20257.62492122001</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5452,7 +5492,7 @@
         <v>-20572.58632122001</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5650,10 +5690,14 @@
         <v>-28242.84072122</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>269</v>
+      </c>
+      <c r="J159" t="n">
+        <v>269</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
@@ -5683,11 +5727,19 @@
         <v>-28172.84072122</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>269</v>
+      </c>
+      <c r="J160" t="n">
+        <v>269</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5719,8 +5771,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>269</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-11-20 BackTest PIVX.xlsx
+++ b/BackTest/2019-11-20 BackTest PIVX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M161"/>
+  <dimension ref="A1:L161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>356</v>
       </c>
       <c r="G2" t="n">
-        <v>-9174.87442122</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>1.8657</v>
       </c>
       <c r="G3" t="n">
-        <v>-9173.00872122</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>6.3743</v>
       </c>
       <c r="G4" t="n">
-        <v>-9173.00872122</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>700.9999</v>
       </c>
       <c r="G5" t="n">
-        <v>-9874.00862122</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>352</v>
       </c>
       <c r="G6" t="n">
-        <v>-9874.00862122</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>2920.8964</v>
       </c>
       <c r="G7" t="n">
-        <v>-9874.00862122</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>1681.5092</v>
       </c>
       <c r="G8" t="n">
-        <v>-9874.00862122</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>413.1316</v>
       </c>
       <c r="G9" t="n">
-        <v>-10287.14022122</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>18436.5303</v>
       </c>
       <c r="G10" t="n">
-        <v>-28723.67052122</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>802.4</v>
       </c>
       <c r="G11" t="n">
-        <v>-28723.67052122</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>1506.237</v>
       </c>
       <c r="G12" t="n">
-        <v>-28723.67052122</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>6.3743</v>
       </c>
       <c r="G13" t="n">
-        <v>-28730.04482122</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>2985.477</v>
       </c>
       <c r="G14" t="n">
-        <v>-25744.56782122</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>2112.9999</v>
       </c>
       <c r="G15" t="n">
-        <v>-23631.56792122</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>5530.9071</v>
       </c>
       <c r="G16" t="n">
-        <v>-18100.66082122</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>90</v>
       </c>
       <c r="G17" t="n">
-        <v>-18190.66082122</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>2740.4815</v>
       </c>
       <c r="G18" t="n">
-        <v>-18190.66082122</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>2945.0229</v>
       </c>
       <c r="G19" t="n">
-        <v>-15245.63792122</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>1000</v>
       </c>
       <c r="G20" t="n">
-        <v>-16245.63792122</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,22 +1013,15 @@
         <v>3012.1366</v>
       </c>
       <c r="G21" t="n">
-        <v>-19257.77452122</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>262</v>
-      </c>
-      <c r="J21" t="n">
-        <v>262</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1112,26 +1043,15 @@
         <v>600</v>
       </c>
       <c r="G22" t="n">
-        <v>-19257.77452122</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>261</v>
-      </c>
-      <c r="J22" t="n">
-        <v>262</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1153,26 +1073,19 @@
         <v>147</v>
       </c>
       <c r="G23" t="n">
-        <v>-19257.77452122</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>261</v>
       </c>
       <c r="I23" t="n">
         <v>261</v>
       </c>
-      <c r="J23" t="n">
-        <v>262</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1194,22 +1107,23 @@
         <v>700.4655</v>
       </c>
       <c r="G24" t="n">
-        <v>-19958.24002122</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>261</v>
       </c>
       <c r="I24" t="n">
         <v>261</v>
       </c>
-      <c r="J24" t="n">
-        <v>261</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1231,26 +1145,23 @@
         <v>1755.4143</v>
       </c>
       <c r="G25" t="n">
-        <v>-21713.65432122</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>260</v>
       </c>
       <c r="I25" t="n">
-        <v>260</v>
-      </c>
-      <c r="J25" t="n">
         <v>261</v>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1272,26 +1183,19 @@
         <v>300</v>
       </c>
       <c r="G26" t="n">
-        <v>-21413.65432122</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>259</v>
       </c>
       <c r="I26" t="n">
         <v>259</v>
       </c>
-      <c r="J26" t="n">
-        <v>261</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1313,18 +1217,23 @@
         <v>371</v>
       </c>
       <c r="G27" t="n">
-        <v>-21042.65432122</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>264</v>
+      </c>
+      <c r="I27" t="n">
+        <v>259</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1346,18 +1255,23 @@
         <v>2957</v>
       </c>
       <c r="G28" t="n">
-        <v>-21042.65432122</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>265</v>
+      </c>
+      <c r="I28" t="n">
+        <v>259</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1379,18 +1293,23 @@
         <v>13290.4481</v>
       </c>
       <c r="G29" t="n">
-        <v>-7752.206221220002</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>265</v>
+      </c>
+      <c r="I29" t="n">
+        <v>259</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1412,18 +1331,23 @@
         <v>4264.9132</v>
       </c>
       <c r="G30" t="n">
-        <v>-12017.11942122</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>266</v>
+      </c>
+      <c r="I30" t="n">
+        <v>259</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1445,18 +1369,23 @@
         <v>5224.8995</v>
       </c>
       <c r="G31" t="n">
-        <v>-12017.11942122</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>265</v>
+      </c>
+      <c r="I31" t="n">
+        <v>259</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1478,18 +1407,23 @@
         <v>80</v>
       </c>
       <c r="G32" t="n">
-        <v>-12097.11942122</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>265</v>
+      </c>
+      <c r="I32" t="n">
+        <v>259</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1511,22 +1445,23 @@
         <v>80</v>
       </c>
       <c r="G33" t="n">
-        <v>-12017.11942122</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>264</v>
       </c>
       <c r="I33" t="n">
-        <v>264</v>
-      </c>
-      <c r="J33" t="n">
-        <v>264</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>259</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1548,26 +1483,21 @@
         <v>1583</v>
       </c>
       <c r="G34" t="n">
-        <v>-10434.11942122</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="n">
-        <v>265</v>
-      </c>
-      <c r="J34" t="n">
-        <v>264</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>259</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1589,24 +1519,21 @@
         <v>133</v>
       </c>
       <c r="G35" t="n">
-        <v>-10301.11942122</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>264</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>259</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1628,18 +1555,21 @@
         <v>3286.2176</v>
       </c>
       <c r="G36" t="n">
-        <v>-13587.33702122</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>259</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1661,18 +1591,21 @@
         <v>2402.3999</v>
       </c>
       <c r="G37" t="n">
-        <v>-11184.93712122</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>259</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1694,18 +1627,21 @@
         <v>1438.1717</v>
       </c>
       <c r="G38" t="n">
-        <v>-11184.93712122</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>259</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1727,18 +1663,21 @@
         <v>895.66</v>
       </c>
       <c r="G39" t="n">
-        <v>-10289.27712122</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>259</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1760,18 +1699,21 @@
         <v>9460.711300000001</v>
       </c>
       <c r="G40" t="n">
-        <v>-828.5658212200015</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>259</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1793,18 +1735,21 @@
         <v>5275.729</v>
       </c>
       <c r="G41" t="n">
-        <v>-828.5658212200015</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>259</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1826,18 +1771,21 @@
         <v>523.1249</v>
       </c>
       <c r="G42" t="n">
-        <v>-305.4409212200014</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>259</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1859,18 +1807,21 @@
         <v>1867</v>
       </c>
       <c r="G43" t="n">
-        <v>-305.4409212200014</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>259</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1892,18 +1843,21 @@
         <v>4</v>
       </c>
       <c r="G44" t="n">
-        <v>-305.4409212200014</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>259</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1925,18 +1879,21 @@
         <v>1200</v>
       </c>
       <c r="G45" t="n">
-        <v>-305.4409212200014</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>259</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1958,18 +1915,21 @@
         <v>606</v>
       </c>
       <c r="G46" t="n">
-        <v>-911.4409212200014</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>259</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1991,18 +1951,21 @@
         <v>2</v>
       </c>
       <c r="G47" t="n">
-        <v>-909.4409212200014</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>259</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2024,18 +1987,21 @@
         <v>487</v>
       </c>
       <c r="G48" t="n">
-        <v>-422.4409212200014</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>259</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2057,18 +2023,21 @@
         <v>1160</v>
       </c>
       <c r="G49" t="n">
-        <v>737.5590787799986</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>259</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2090,18 +2059,21 @@
         <v>614.5665</v>
       </c>
       <c r="G50" t="n">
-        <v>122.9925787799986</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>259</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2123,18 +2095,21 @@
         <v>9</v>
       </c>
       <c r="G51" t="n">
-        <v>131.9925787799986</v>
-      </c>
-      <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>259</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2156,18 +2131,23 @@
         <v>644.9335</v>
       </c>
       <c r="G52" t="n">
-        <v>131.9925787799986</v>
-      </c>
-      <c r="H52" t="n">
         <v>2</v>
       </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>259</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1.052915057915058</v>
+      </c>
       <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>1.034749034749035</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2189,18 +2169,15 @@
         <v>10545.4457</v>
       </c>
       <c r="G53" t="n">
-        <v>10677.43827878</v>
-      </c>
-      <c r="H53" t="n">
         <v>2</v>
       </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2222,18 +2199,15 @@
         <v>132</v>
       </c>
       <c r="G54" t="n">
-        <v>10545.43827878</v>
-      </c>
-      <c r="H54" t="n">
         <v>2</v>
       </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2255,18 +2229,15 @@
         <v>7904.1047</v>
       </c>
       <c r="G55" t="n">
-        <v>10545.43827878</v>
-      </c>
-      <c r="H55" t="n">
         <v>2</v>
       </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2288,18 +2259,15 @@
         <v>196</v>
       </c>
       <c r="G56" t="n">
-        <v>10349.43827878</v>
-      </c>
-      <c r="H56" t="n">
         <v>2</v>
       </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2321,18 +2289,15 @@
         <v>614.5665</v>
       </c>
       <c r="G57" t="n">
-        <v>10349.43827878</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2354,18 +2319,15 @@
         <v>1921.3628</v>
       </c>
       <c r="G58" t="n">
-        <v>12270.80107878</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2387,18 +2349,15 @@
         <v>12</v>
       </c>
       <c r="G59" t="n">
-        <v>12282.80107878</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2420,18 +2379,15 @@
         <v>1535.6081</v>
       </c>
       <c r="G60" t="n">
-        <v>10747.19297878</v>
-      </c>
-      <c r="H60" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2453,18 +2409,15 @@
         <v>1209.0596</v>
       </c>
       <c r="G61" t="n">
-        <v>9538.133378779999</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2486,18 +2439,15 @@
         <v>180.8337</v>
       </c>
       <c r="G62" t="n">
-        <v>9538.133378779999</v>
-      </c>
-      <c r="H62" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2519,18 +2469,15 @@
         <v>2.5</v>
       </c>
       <c r="G63" t="n">
-        <v>9538.133378779999</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2552,18 +2499,15 @@
         <v>4295.051</v>
       </c>
       <c r="G64" t="n">
-        <v>5243.082378779999</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2585,18 +2529,15 @@
         <v>13</v>
       </c>
       <c r="G65" t="n">
-        <v>5256.082378779999</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2618,18 +2559,15 @@
         <v>1996.3946</v>
       </c>
       <c r="G66" t="n">
-        <v>3259.687778779999</v>
-      </c>
-      <c r="H66" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2651,18 +2589,15 @@
         <v>378.845</v>
       </c>
       <c r="G67" t="n">
-        <v>2880.842778779999</v>
-      </c>
-      <c r="H67" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2684,18 +2619,15 @@
         <v>4004.5958</v>
       </c>
       <c r="G68" t="n">
-        <v>-1123.753021220001</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2717,18 +2649,15 @@
         <v>6349.9557</v>
       </c>
       <c r="G69" t="n">
-        <v>-7473.708721220001</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2750,18 +2679,15 @@
         <v>9</v>
       </c>
       <c r="G70" t="n">
-        <v>-7464.708721220001</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2783,18 +2709,15 @@
         <v>1610.6</v>
       </c>
       <c r="G71" t="n">
-        <v>-9075.308721220001</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2816,18 +2739,15 @@
         <v>1345.774</v>
       </c>
       <c r="G72" t="n">
-        <v>-7729.534721220001</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2849,18 +2769,15 @@
         <v>33</v>
       </c>
       <c r="G73" t="n">
-        <v>-7696.534721220001</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2882,18 +2799,15 @@
         <v>80</v>
       </c>
       <c r="G74" t="n">
-        <v>-7776.534721220001</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2915,18 +2829,15 @@
         <v>1578.099</v>
       </c>
       <c r="G75" t="n">
-        <v>-7776.534721220001</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2948,18 +2859,15 @@
         <v>67.9888</v>
       </c>
       <c r="G76" t="n">
-        <v>-7844.523521220001</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2981,18 +2889,19 @@
         <v>99</v>
       </c>
       <c r="G77" t="n">
-        <v>-7745.523521220001</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>266</v>
+      </c>
+      <c r="I77" t="n">
+        <v>266</v>
+      </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3014,18 +2923,21 @@
         <v>2280</v>
       </c>
       <c r="G78" t="n">
-        <v>-7745.523521220001</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>266</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3047,18 +2959,21 @@
         <v>3003.873</v>
       </c>
       <c r="G79" t="n">
-        <v>-10749.39652122</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>266</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3080,18 +2995,15 @@
         <v>290</v>
       </c>
       <c r="G80" t="n">
-        <v>-11039.39652122</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3113,18 +3025,19 @@
         <v>9200</v>
       </c>
       <c r="G81" t="n">
-        <v>-20239.39652122</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>265</v>
+      </c>
+      <c r="I81" t="n">
+        <v>265</v>
+      </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3146,18 +3059,23 @@
         <v>19.5474</v>
       </c>
       <c r="G82" t="n">
-        <v>-20219.84912122</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>264</v>
+      </c>
+      <c r="I82" t="n">
+        <v>265</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3179,18 +3097,23 @@
         <v>10921.6011</v>
       </c>
       <c r="G83" t="n">
-        <v>-31141.45022122</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>266</v>
+      </c>
+      <c r="I83" t="n">
+        <v>265</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3212,18 +3135,23 @@
         <v>136.4526</v>
       </c>
       <c r="G84" t="n">
-        <v>-31004.99762122</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>263</v>
+      </c>
+      <c r="I84" t="n">
+        <v>265</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3245,18 +3173,23 @@
         <v>6993.007</v>
       </c>
       <c r="G85" t="n">
-        <v>-37998.00462122</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>266</v>
+      </c>
+      <c r="I85" t="n">
+        <v>265</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3278,18 +3211,23 @@
         <v>257.9828</v>
       </c>
       <c r="G86" t="n">
-        <v>-37740.02182122001</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>262</v>
+      </c>
+      <c r="I86" t="n">
+        <v>265</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3311,18 +3249,23 @@
         <v>56</v>
       </c>
       <c r="G87" t="n">
-        <v>-37684.02182122001</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>265</v>
+      </c>
+      <c r="I87" t="n">
+        <v>265</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3344,18 +3287,23 @@
         <v>1884</v>
       </c>
       <c r="G88" t="n">
-        <v>-37684.02182122001</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>266</v>
+      </c>
+      <c r="I88" t="n">
+        <v>265</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3377,18 +3325,23 @@
         <v>4817</v>
       </c>
       <c r="G89" t="n">
-        <v>-42501.02182122001</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>266</v>
+      </c>
+      <c r="I89" t="n">
+        <v>265</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3410,18 +3363,23 @@
         <v>2141.7212</v>
       </c>
       <c r="G90" t="n">
-        <v>-44642.74302122001</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>265</v>
+      </c>
+      <c r="I90" t="n">
+        <v>265</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3443,18 +3401,23 @@
         <v>7560.526</v>
       </c>
       <c r="G91" t="n">
-        <v>-37082.21702122001</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>264</v>
+      </c>
+      <c r="I91" t="n">
+        <v>265</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3476,18 +3439,21 @@
         <v>201.2498</v>
       </c>
       <c r="G92" t="n">
-        <v>-37082.21702122001</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>265</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3509,18 +3475,21 @@
         <v>9375.0548</v>
       </c>
       <c r="G93" t="n">
-        <v>-27707.16222122001</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>265</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3542,18 +3511,21 @@
         <v>2036</v>
       </c>
       <c r="G94" t="n">
-        <v>-25671.16222122001</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>265</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3575,18 +3547,21 @@
         <v>7061.2998</v>
       </c>
       <c r="G95" t="n">
-        <v>-18609.86242122001</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>265</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3608,18 +3583,21 @@
         <v>6847.6181</v>
       </c>
       <c r="G96" t="n">
-        <v>-18609.86242122001</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>265</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3641,18 +3619,21 @@
         <v>1181.8458</v>
       </c>
       <c r="G97" t="n">
-        <v>-18609.86242122001</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>265</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3674,18 +3655,21 @@
         <v>4.7684</v>
       </c>
       <c r="G98" t="n">
-        <v>-18605.09402122001</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>265</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3707,18 +3691,21 @@
         <v>1055</v>
       </c>
       <c r="G99" t="n">
-        <v>-19660.09402122001</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>265</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3740,18 +3727,21 @@
         <v>407</v>
       </c>
       <c r="G100" t="n">
-        <v>-19660.09402122001</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>265</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3773,18 +3763,23 @@
         <v>1905</v>
       </c>
       <c r="G101" t="n">
-        <v>-17755.09402122001</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>268</v>
+      </c>
+      <c r="I101" t="n">
+        <v>265</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3806,18 +3801,21 @@
         <v>604.3999</v>
       </c>
       <c r="G102" t="n">
-        <v>-17755.09402122001</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>265</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3839,18 +3837,21 @@
         <v>15.9228</v>
       </c>
       <c r="G103" t="n">
-        <v>-17739.17122122001</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>265</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3872,18 +3873,21 @@
         <v>15.9228</v>
       </c>
       <c r="G104" t="n">
-        <v>-17755.09402122001</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>265</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3905,18 +3909,21 @@
         <v>3653.3285</v>
       </c>
       <c r="G105" t="n">
-        <v>-17755.09402122001</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>265</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3938,18 +3945,21 @@
         <v>40</v>
       </c>
       <c r="G106" t="n">
-        <v>-17755.09402122001</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>265</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3971,18 +3981,21 @@
         <v>1.9</v>
       </c>
       <c r="G107" t="n">
-        <v>-17753.19402122001</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>265</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4004,18 +4017,21 @@
         <v>2848.335</v>
       </c>
       <c r="G108" t="n">
-        <v>-17753.19402122001</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>265</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4037,18 +4053,21 @@
         <v>139</v>
       </c>
       <c r="G109" t="n">
-        <v>-17753.19402122001</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>265</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4070,18 +4089,21 @@
         <v>1119.3609</v>
       </c>
       <c r="G110" t="n">
-        <v>-18872.55492122001</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>265</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4103,18 +4125,21 @@
         <v>1.9</v>
       </c>
       <c r="G111" t="n">
-        <v>-18870.65492122</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>265</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4136,18 +4161,21 @@
         <v>410.4149</v>
       </c>
       <c r="G112" t="n">
-        <v>-18460.24002122</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>265</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4169,18 +4197,21 @@
         <v>395.6241</v>
       </c>
       <c r="G113" t="n">
-        <v>-18855.86412122001</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>265</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4202,18 +4233,21 @@
         <v>1121</v>
       </c>
       <c r="G114" t="n">
-        <v>-17734.86412122001</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>265</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4235,18 +4269,21 @@
         <v>221.35</v>
       </c>
       <c r="G115" t="n">
-        <v>-17513.51412122001</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>265</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4268,18 +4305,21 @@
         <v>278</v>
       </c>
       <c r="G116" t="n">
-        <v>-17235.51412122001</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>265</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4301,18 +4341,21 @@
         <v>1769.252</v>
       </c>
       <c r="G117" t="n">
-        <v>-19004.76612122001</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>265</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4334,18 +4377,21 @@
         <v>255.8865</v>
       </c>
       <c r="G118" t="n">
-        <v>-19004.76612122001</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>265</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4367,18 +4413,21 @@
         <v>1765.421</v>
       </c>
       <c r="G119" t="n">
-        <v>-19004.76612122001</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>265</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4400,18 +4449,21 @@
         <v>905.7</v>
       </c>
       <c r="G120" t="n">
-        <v>-18099.06612122001</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>265</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4433,18 +4485,21 @@
         <v>100</v>
       </c>
       <c r="G121" t="n">
-        <v>-17999.06612122001</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>265</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4466,18 +4521,21 @@
         <v>31.1765</v>
       </c>
       <c r="G122" t="n">
-        <v>-17999.06612122001</v>
-      </c>
-      <c r="H122" t="n">
-        <v>2</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>265</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4499,18 +4557,21 @@
         <v>334.8</v>
       </c>
       <c r="G123" t="n">
-        <v>-18333.86612122001</v>
-      </c>
-      <c r="H123" t="n">
         <v>2</v>
       </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>265</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1.021415094339623</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4532,18 +4593,15 @@
         <v>4787.3186</v>
       </c>
       <c r="G124" t="n">
-        <v>-18333.86612122001</v>
-      </c>
-      <c r="H124" t="n">
         <v>2</v>
       </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4565,18 +4623,15 @@
         <v>6084.074</v>
       </c>
       <c r="G125" t="n">
-        <v>-24417.94012122001</v>
-      </c>
-      <c r="H125" t="n">
         <v>2</v>
       </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4598,18 +4653,15 @@
         <v>255.4633</v>
       </c>
       <c r="G126" t="n">
-        <v>-24162.47682122001</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4631,18 +4683,15 @@
         <v>2199.0564</v>
       </c>
       <c r="G127" t="n">
-        <v>-21963.42042122001</v>
-      </c>
-      <c r="H127" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4664,18 +4713,15 @@
         <v>5909.2096</v>
       </c>
       <c r="G128" t="n">
-        <v>-27872.63002122001</v>
-      </c>
-      <c r="H128" t="n">
         <v>2</v>
       </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4697,18 +4743,15 @@
         <v>1500</v>
       </c>
       <c r="G129" t="n">
-        <v>-26372.63002122001</v>
-      </c>
-      <c r="H129" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4730,18 +4773,15 @@
         <v>60</v>
       </c>
       <c r="G130" t="n">
-        <v>-26312.63002122001</v>
-      </c>
-      <c r="H130" t="n">
         <v>2</v>
       </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4763,18 +4803,15 @@
         <v>2067.5989</v>
       </c>
       <c r="G131" t="n">
-        <v>-28380.22892122001</v>
-      </c>
-      <c r="H131" t="n">
         <v>2</v>
       </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4796,18 +4833,15 @@
         <v>1741.375</v>
       </c>
       <c r="G132" t="n">
-        <v>-30121.60392122001</v>
-      </c>
-      <c r="H132" t="n">
         <v>2</v>
       </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4829,18 +4863,15 @@
         <v>1606.8445</v>
       </c>
       <c r="G133" t="n">
-        <v>-30121.60392122001</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4862,18 +4893,15 @@
         <v>64</v>
       </c>
       <c r="G134" t="n">
-        <v>-30121.60392122001</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4895,18 +4923,15 @@
         <v>6000</v>
       </c>
       <c r="G135" t="n">
-        <v>-30121.60392122001</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4928,18 +4953,15 @@
         <v>1800</v>
       </c>
       <c r="G136" t="n">
-        <v>-28321.60392122001</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4961,18 +4983,15 @@
         <v>1000</v>
       </c>
       <c r="G137" t="n">
-        <v>-27321.60392122001</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4994,18 +5013,15 @@
         <v>120</v>
       </c>
       <c r="G138" t="n">
-        <v>-27201.60392122001</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5027,18 +5043,15 @@
         <v>1477.6695</v>
       </c>
       <c r="G139" t="n">
-        <v>-28679.27342122001</v>
-      </c>
-      <c r="H139" t="n">
         <v>2</v>
       </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5060,18 +5073,15 @@
         <v>1316.21</v>
       </c>
       <c r="G140" t="n">
-        <v>-29995.48342122001</v>
-      </c>
-      <c r="H140" t="n">
         <v>2</v>
       </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5093,18 +5103,15 @@
         <v>1600</v>
       </c>
       <c r="G141" t="n">
-        <v>-28395.48342122001</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5126,18 +5133,15 @@
         <v>2163.3959</v>
       </c>
       <c r="G142" t="n">
-        <v>-28395.48342122001</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5159,18 +5163,15 @@
         <v>11</v>
       </c>
       <c r="G143" t="n">
-        <v>-28384.48342122001</v>
-      </c>
-      <c r="H143" t="n">
         <v>2</v>
       </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5192,18 +5193,15 @@
         <v>4216.717</v>
       </c>
       <c r="G144" t="n">
-        <v>-32601.20042122001</v>
-      </c>
-      <c r="H144" t="n">
         <v>2</v>
       </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5225,18 +5223,15 @@
         <v>3788.9</v>
       </c>
       <c r="G145" t="n">
-        <v>-28812.30042122001</v>
-      </c>
-      <c r="H145" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5258,18 +5253,15 @@
         <v>110</v>
       </c>
       <c r="G146" t="n">
-        <v>-28922.30042122001</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5291,18 +5283,15 @@
         <v>802</v>
       </c>
       <c r="G147" t="n">
-        <v>-28120.30042122001</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5324,18 +5313,15 @@
         <v>663</v>
       </c>
       <c r="G148" t="n">
-        <v>-28783.30042122001</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5357,18 +5343,15 @@
         <v>8703.6754</v>
       </c>
       <c r="G149" t="n">
-        <v>-20079.62502122001</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5390,18 +5373,15 @@
         <v>4</v>
       </c>
       <c r="G150" t="n">
-        <v>-20083.62502122001</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5423,18 +5403,15 @@
         <v>173.9999</v>
       </c>
       <c r="G151" t="n">
-        <v>-20257.62492122001</v>
-      </c>
-      <c r="H151" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5456,18 +5433,15 @@
         <v>796.0386</v>
       </c>
       <c r="G152" t="n">
-        <v>-19461.58632122001</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5489,18 +5463,15 @@
         <v>1111</v>
       </c>
       <c r="G153" t="n">
-        <v>-20572.58632122001</v>
-      </c>
-      <c r="H153" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5522,18 +5493,15 @@
         <v>167.6834</v>
       </c>
       <c r="G154" t="n">
-        <v>-20404.90292122</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5555,18 +5523,15 @@
         <v>31.1765</v>
       </c>
       <c r="G155" t="n">
-        <v>-20436.07942122001</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5588,18 +5553,15 @@
         <v>6806.7613</v>
       </c>
       <c r="G156" t="n">
-        <v>-27242.84072122</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5621,18 +5583,15 @@
         <v>1000</v>
       </c>
       <c r="G157" t="n">
-        <v>-28242.84072122</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5654,18 +5613,15 @@
         <v>1032.0211</v>
       </c>
       <c r="G158" t="n">
-        <v>-28242.84072122</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5687,22 +5643,15 @@
         <v>1896.9141</v>
       </c>
       <c r="G159" t="n">
-        <v>-28242.84072122</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>269</v>
-      </c>
-      <c r="J159" t="n">
-        <v>269</v>
-      </c>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5724,26 +5673,15 @@
         <v>70</v>
       </c>
       <c r="G160" t="n">
-        <v>-28172.84072122</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>269</v>
-      </c>
-      <c r="J160" t="n">
-        <v>269</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5765,24 +5703,15 @@
         <v>2.258</v>
       </c>
       <c r="G161" t="n">
-        <v>-28170.58272122</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>269</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
